--- a/PLSstatic_predicted_variables_matrix_11.xlsx
+++ b/PLSstatic_predicted_variables_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:AV67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,135 @@
       <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -466,6 +595,135 @@
       <c r="E2" t="n">
         <v>-0.2722666976366583</v>
       </c>
+      <c r="F2" t="n">
+        <v>-0.267685556650742</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.2635241934458442</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-0.2596680353815771</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.2561255040266048</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-0.2529087087657668</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.2500292945542762</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-0.2474961261952283</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-0.2453136094302976</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-0.2434821301425855</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-0.2419974306644827</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-0.2408512535614184</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-0.2400317024871488</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-0.239523690371803</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-0.2393094108400476</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-0.2393688180764808</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-0.2396801049378052</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-0.2402201708145878</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-0.2409650715024312</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-0.2418912760821371</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-0.2429727878082158</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>-0.2441862777662579</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-0.2455083556733259</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>-0.2469306872111293</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-0.2484281681524781</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-0.2499647999017438</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-0.2515226232960634</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-0.2530932087383976</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-0.2546485850514049</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-0.2561754539584474</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-0.2576624820418202</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-0.2590991083209909</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-0.2604777709006788</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-0.2617925414499753</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-0.2630448549839357</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-0.2642258469752046</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>-0.2653341070622749</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>-0.2663685817961879</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-0.2673297501104959</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-0.2682186931945698</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>-0.2690373158699027</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>-0.2697877079912959</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>-0.2704727973135109</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>-0.2710958893890386</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -483,6 +741,135 @@
       <c r="E3" t="n">
         <v>0.2099982638845095</v>
       </c>
+      <c r="F3" t="n">
+        <v>0.2197857772071743</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.2278298860289505</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.2343685135606079</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.2395337885225695</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.24346762805601</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.2463149390725479</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.2482187369171186</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.2493168303833936</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.2497387332401709</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.2496042749969322</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.2490224009740879</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.2480907833342019</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.2468958549166323</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.2455131598238016</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.2440079171091728</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.2424357174400608</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.2408432928681191</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.2392693163502714</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.237744640896868</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.2362952283902535</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.234939834937791</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.2336925998243625</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.232575261161105</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.2315976364525618</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.2307479160415151</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.2300235407828745</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.2294361792385401</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.2289651122411475</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.2286038139739077</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.2283453175545208</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.2281827554092252</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.2281080721665465</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.2281129877722891</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.2281779266248607</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.2283107137812731</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.2285023097350817</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.2287443829801078</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.2290287449024601</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.2293478984009752</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.229694861441421</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.2300635039325544</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.2304480313391044</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.2308433722880612</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -500,6 +887,135 @@
       <c r="E4" t="n">
         <v>0.1834767505083055</v>
       </c>
+      <c r="F4" t="n">
+        <v>0.1932089070708727</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.2009586129457078</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.2071293739839137</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.2119647071039795</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.2156851580837606</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.2184841789865847</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.2205292916112634</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.2219635568310863</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.2229082595105794</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.2234648410573718</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.2237174874296988</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.2237354070183893</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.2235749788879422</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.2232817125102297</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.2228920021915194</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.2224346730010114</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.2219323243195038</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.2214024831622828</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.2208589601718133</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.22031111974597</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.2197669658726915</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.2192320455386916</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.2187430688520292</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.2182985876013419</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.2178625365357759</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.2174355441854104</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.2170473121619508</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.2166675223460193</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.2162970722353913</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.2159385102104261</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.2155935302986018</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.2152640610557027</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.2149516348310153</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.2146385269169375</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.2143471778749704</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.2140780824332614</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.2138305162210788</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.213604089563112</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.2133983277551422</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0.2132128305009049</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.2130469964580077</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0.2129003289308995</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0.212772400479824</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -517,6 +1033,135 @@
       <c r="E5" t="n">
         <v>-0.06209165414375864</v>
       </c>
+      <c r="F5" t="n">
+        <v>-0.05760683801447145</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-0.05413839621784119</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-0.05161432231617247</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-0.04994538975597418</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-0.0490336215711908</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-0.04877908403657056</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-0.04908471486902934</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.04985945652684394</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.05101895784600448</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-0.05248690803211176</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-0.05419484206094135</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-0.05608200488492974</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-0.05809501032042899</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-0.06018740052640602</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-0.06231915393110959</v>
+      </c>
+      <c r="U5" t="n">
+        <v>-0.06445617211123117</v>
+      </c>
+      <c r="V5" t="n">
+        <v>-0.06656976520941463</v>
+      </c>
+      <c r="W5" t="n">
+        <v>-0.06863614846257773</v>
+      </c>
+      <c r="X5" t="n">
+        <v>-0.0706352947261962</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>-0.07255306548843959</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>-0.07437700905626869</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>-0.07609835711151453</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>-0.07770071057729866</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>-0.079175401543331</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>-0.08053004873713954</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>-0.0817661290395835</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>-0.08286977439740553</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>-0.08386194834334582</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>-0.08474802842151485</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>-0.08553383423370763</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>-0.08622642763791988</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>-0.08683211723599921</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>-0.08735734030342905</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>-0.08783541851170155</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>-0.08824423825673462</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>-0.08859044816614203</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>-0.08888105942947537</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>-0.08912227048411496</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>-0.08932010666901738</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>-0.08948010258684951</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>-0.08960778653807673</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>-0.08970797641589842</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>-0.08978511561293652</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -534,6 +1179,135 @@
       <c r="E6" t="n">
         <v>0.1984059132695904</v>
       </c>
+      <c r="F6" t="n">
+        <v>0.2069092914186741</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.2142840189359642</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.2203447945050553</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.2250564368198755</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.22845301439002</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.2306148077365013</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.2316503555430698</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.2316849023854926</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.2308515122259593</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.2292845555217293</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.2271151125229867</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.224467792696988</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.2214585818744478</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.2181934902368012</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.2147678077714561</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.2112658182836303</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.2077608564263235</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.2043156176082608</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.2009823895870937</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.1978048910004382</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.1948168452829506</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.1920443842481416</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.1895133530086121</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.1872561467037206</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.1852684956252874</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.1835463875293997</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.1821199911165373</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.1809439674330882</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.1800042432960882</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.1792856145571429</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.1787720127579887</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.1784461094092082</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.1782903813612984</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.1782352122408712</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.1783235666019394</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.1785378194620125</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.1788608828198029</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.1792762242282585</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.1797683443344319</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.1803228122110858</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.1809262299879295</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.1815663480973442</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0.1822319953209352</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -551,6 +1325,135 @@
       <c r="E7" t="n">
         <v>-0.4169160985861964</v>
       </c>
+      <c r="F7" t="n">
+        <v>-0.4124620943976137</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-0.4085926661824237</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-0.4052285008613755</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.4023752789640718</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-0.4000300643152019</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-0.3981796608565136</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-0.3968019290552464</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-0.39586719596835</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.3953419102786487</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-0.3951895244604338</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-0.3953727148865896</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>-0.3958545052095233</v>
+      </c>
+      <c r="R7" t="n">
+        <v>-0.396599069312507</v>
+      </c>
+      <c r="S7" t="n">
+        <v>-0.39757224023167</v>
+      </c>
+      <c r="T7" t="n">
+        <v>-0.3987418055996578</v>
+      </c>
+      <c r="U7" t="n">
+        <v>-0.4000776560281784</v>
+      </c>
+      <c r="V7" t="n">
+        <v>-0.4015518370746503</v>
+      </c>
+      <c r="W7" t="n">
+        <v>-0.4031385411767386</v>
+      </c>
+      <c r="X7" t="n">
+        <v>-0.4048153605410539</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>-0.4065581043052924</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>-0.4083482339430109</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>-0.4101679779688825</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>-0.4119853166138721</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>-0.4137800851500597</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>-0.4155611865905577</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>-0.41731848864513</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>-0.4190135549207469</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>-0.4206685211141533</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>-0.4222759230861934</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>-0.423830305573661</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>-0.4253257281806407</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>-0.4267592928736442</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>-0.428129054484565</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>-0.429468423841383</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>-0.4307368222858264</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>-0.431936352024295</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>-0.4330680326906421</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>-0.434134211132658</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>-0.4351372202818386</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>-0.4360798616802007</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>-0.4369644879838096</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>-0.4377942612652071</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>-0.4385722721525778</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -568,6 +1471,135 @@
       <c r="E8" t="n">
         <v>-0.1820138397181836</v>
       </c>
+      <c r="F8" t="n">
+        <v>-0.1732824782985799</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-0.1663292489605653</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-0.1607779213290997</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-0.1563412904150444</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-0.152795392295284</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-0.1499647332716944</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-0.1477094926894311</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-0.1459176231493843</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.1445003758802001</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-0.1433872902087914</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-0.1425233267687968</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>-0.1418659871140764</v>
+      </c>
+      <c r="R8" t="n">
+        <v>-0.1413828364368625</v>
+      </c>
+      <c r="S8" t="n">
+        <v>-0.1410493564885822</v>
+      </c>
+      <c r="T8" t="n">
+        <v>-0.1408471071630185</v>
+      </c>
+      <c r="U8" t="n">
+        <v>-0.1407621802232664</v>
+      </c>
+      <c r="V8" t="n">
+        <v>-0.1407839261464553</v>
+      </c>
+      <c r="W8" t="n">
+        <v>-0.1409039307821534</v>
+      </c>
+      <c r="X8" t="n">
+        <v>-0.14111602125603</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>-0.141412562074085</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>-0.1417883637321666</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>-0.1422377926638606</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>-0.142701799406639</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>-0.1431853880570717</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>-0.1437523037965289</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>-0.1443923008693974</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>-0.1450436780681363</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>-0.1457585064041358</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>-0.1465235547702519</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>-0.1473256507999365</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>-0.1481519537396682</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>-0.1489921520973027</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>-0.1498372209050158</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>-0.1507046996490785</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>-0.1515539253683044</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>-0.1523810718394744</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>-0.1531823723212586</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>-0.1539550078703261</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>-0.1546963550153148</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>-0.1554043856384193</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>-0.1560769784268352</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>-0.1567129232092737</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>-0.1573113976745394</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -585,6 +1617,135 @@
       <c r="E9" t="n">
         <v>-0.3972106736357751</v>
       </c>
+      <c r="F9" t="n">
+        <v>-0.3824064745092082</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-0.3697452718227729</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-0.3587756973028661</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-0.3493928060618302</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-0.3414830883643527</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-0.3349303138039916</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-0.3296178096083859</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-0.3254301799772546</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.3222549515326696</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-0.3199836154312498</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-0.3185125799476081</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>-0.3177437965000121</v>
+      </c>
+      <c r="R9" t="n">
+        <v>-0.3175851807640246</v>
+      </c>
+      <c r="S9" t="n">
+        <v>-0.3179508620662059</v>
+      </c>
+      <c r="T9" t="n">
+        <v>-0.318761296625479</v>
+      </c>
+      <c r="U9" t="n">
+        <v>-0.3199432745364736</v>
+      </c>
+      <c r="V9" t="n">
+        <v>-0.3214298446980408</v>
+      </c>
+      <c r="W9" t="n">
+        <v>-0.3231601767887132</v>
+      </c>
+      <c r="X9" t="n">
+        <v>-0.3250796495797494</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>-0.3271386368674292</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>-0.3292935464062989</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>-0.3315058508466568</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>-0.333754708336497</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>-0.3360010163844174</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>-0.3382032334969248</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>-0.3403449575511082</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>-0.342413716408898</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>-0.3443880473702886</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>-0.3462613345079458</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>-0.348027887003777</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>-0.3496837254080083</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>-0.3512270960572612</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>-0.352657973621252</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>-0.3539959079010644</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>-0.3552243639973581</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>-0.3563465911561257</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>-0.3573672253121373</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>-0.3582917290362626</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>-0.3591259957815376</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>-0.3598762805996011</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>-0.3605489014518865</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>-0.3611503949284939</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>-0.3616871729856831</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -602,6 +1763,135 @@
       <c r="E10" t="n">
         <v>0.3888317323542241</v>
       </c>
+      <c r="F10" t="n">
+        <v>0.393917418471705</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.3984056746403036</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.4021755285016229</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.4052186982518028</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.4075641555332981</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.4092642519255453</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.410384035395673</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.4109939771846556</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.4111658746333391</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.4109692008701837</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.4104694805147429</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.409727180404906</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.408797161357996</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.4077284945025096</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.4065645181345619</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.4053430487809231</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.404096686749981</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.4028531751920305</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.4016362598672152</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.4004642644584141</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.3993530504056041</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.3983148040344346</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.3973646032706912</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.3965103169706428</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.3957502833786909</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.3950864432839078</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.3945250836427576</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.3940564860373817</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.3936786362604215</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.3933885811840699</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.3931818857331174</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.3930541552192885</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.3930005557747017</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.3930097733607459</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.3930844831959082</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.3932183038396915</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.3934046822583203</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0.3936376561620826</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0.3939114153353389</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.3942205533699094</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0.3945596588142767</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0.3949239104757642</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0.3953087919090416</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -619,6 +1909,135 @@
       <c r="E11" t="n">
         <v>-0.2145511306471861</v>
       </c>
+      <c r="F11" t="n">
+        <v>-0.2097670663710859</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-0.2061033228981745</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-0.203432788085447</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-0.2016477792405182</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-0.2006230915965921</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-0.2002311655967083</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-0.2003513483785296</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-0.2008740884533581</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.2017030848128417</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-0.2027560414578945</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-0.2039642726268518</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>-0.2052717351878555</v>
+      </c>
+      <c r="R11" t="n">
+        <v>-0.2066337543304721</v>
+      </c>
+      <c r="S11" t="n">
+        <v>-0.2080156099234106</v>
+      </c>
+      <c r="T11" t="n">
+        <v>-0.2093911046796835</v>
+      </c>
+      <c r="U11" t="n">
+        <v>-0.2107411912033582</v>
+      </c>
+      <c r="V11" t="n">
+        <v>-0.2120527039486186</v>
+      </c>
+      <c r="W11" t="n">
+        <v>-0.2133172204951381</v>
+      </c>
+      <c r="X11" t="n">
+        <v>-0.2145302626990237</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>-0.2156895672114336</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>-0.2167957678857116</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>-0.2178507607375996</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>-0.2188150333250085</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>-0.2196930800839411</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>-0.2205385697818453</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>-0.2213569375500228</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>-0.2221093282524492</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>-0.2228460458492814</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>-0.2235697050292488</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>-0.2242814797858187</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>-0.2249818621820522</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>-0.2256713107413724</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>-0.2263498965321067</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>-0.2270494677225386</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>-0.2277336067107296</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>-0.2284027860524711</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>-0.2290574214812198</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>-0.2296978238294821</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>-0.2303240373651459</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>-0.2309359231505378</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>-0.2315332782168605</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>-0.2321159574365713</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>-0.2326835035041621</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -636,6 +2055,135 @@
       <c r="E12" t="n">
         <v>-0.06963044639714797</v>
       </c>
+      <c r="F12" t="n">
+        <v>-0.06220459289452858</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-0.05649817730523673</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-0.05254817858386275</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-0.05022804336884711</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-0.04937401273841093</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-0.04980260176424579</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-0.05132418400994433</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-0.05375244879579294</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.05690993967344229</v>
+      </c>
+      <c r="O12" t="n">
+        <v>-0.06063249462300967</v>
+      </c>
+      <c r="P12" t="n">
+        <v>-0.06477117310315787</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>-0.06919326252174501</v>
+      </c>
+      <c r="R12" t="n">
+        <v>-0.07378243541431714</v>
+      </c>
+      <c r="S12" t="n">
+        <v>-0.07843834034675097</v>
+      </c>
+      <c r="T12" t="n">
+        <v>-0.08307582012821176</v>
+      </c>
+      <c r="U12" t="n">
+        <v>-0.08762389789324407</v>
+      </c>
+      <c r="V12" t="n">
+        <v>-0.09202463205863309</v>
+      </c>
+      <c r="W12" t="n">
+        <v>-0.09623191184111221</v>
+      </c>
+      <c r="X12" t="n">
+        <v>-0.1002097922937192</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>-0.1039330307201647</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>-0.1073834931982801</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>-0.1105506041866721</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>-0.1134013518559442</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>-0.1159313459222345</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>-0.1181764526555921</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>-0.12014823528126</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>-0.1218288373346551</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>-0.1232691119716282</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>-0.1244860384189877</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>-0.125497208621122</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>-0.126321186203207</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>-0.1269759179886872</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>-0.1274790824670271</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>-0.1278748552431502</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>-0.128147469158011</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>-0.1283143289506768</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>-0.1283919955644812</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>-0.1283954565110511</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>-0.1283385642162415</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>-0.1282338178934226</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>-0.1280927944067896</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>-0.1279256728016567</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>-0.1277413982986881</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -653,6 +2201,135 @@
       <c r="E13" t="n">
         <v>-0.02742823524849851</v>
       </c>
+      <c r="F13" t="n">
+        <v>-0.02601750276157117</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-0.02571863487812768</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-0.02627696269402922</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-0.02752402168685266</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-0.02931150886497033</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-0.03150959714979411</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-0.03400563322332245</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-0.03670313869793871</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.03951962915205369</v>
+      </c>
+      <c r="O13" t="n">
+        <v>-0.04238572011078465</v>
+      </c>
+      <c r="P13" t="n">
+        <v>-0.04524349253587443</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>-0.04804531341822493</v>
+      </c>
+      <c r="R13" t="n">
+        <v>-0.050752742978948</v>
+      </c>
+      <c r="S13" t="n">
+        <v>-0.05333553839484847</v>
+      </c>
+      <c r="T13" t="n">
+        <v>-0.05577073524459183</v>
+      </c>
+      <c r="U13" t="n">
+        <v>-0.05804179307558642</v>
+      </c>
+      <c r="V13" t="n">
+        <v>-0.0601377964911225</v>
+      </c>
+      <c r="W13" t="n">
+        <v>-0.06205270707983149</v>
+      </c>
+      <c r="X13" t="n">
+        <v>-0.06378399441223945</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>-0.06533462447372566</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>-0.06670858410237394</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>-0.0679128258424926</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>-0.06891426059819927</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>-0.06972267671346201</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>-0.07039382196261031</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>-0.07093960366615365</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>-0.07132850708789672</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>-0.07162094463966824</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>-0.07182958620430838</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>-0.07196675254188949</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>-0.07204481747340015</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>-0.0720742583410368</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>-0.07206465662259062</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>-0.07206707192458914</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>-0.07204469318493983</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>-0.07200435372326247</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>-0.0719525391514161</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>-0.07189443269238968</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>-0.07183461742099259</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>-0.07177683825635597</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>-0.07172447094927011</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>-0.07167998683816822</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>-0.07164522689463397</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -670,6 +2347,135 @@
       <c r="E14" t="n">
         <v>0.05795889130783697</v>
       </c>
+      <c r="F14" t="n">
+        <v>0.07518488238227022</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.08971219852257539</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.1013991839176687</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.1102054438936188</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.116233738816175</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.1196809793982232</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.1208016768084157</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.1198819205558964</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.1172211317678438</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.1131174393792303</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.107858282973455</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.1017137088156939</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.09493201034444601</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.08773714419400214</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.08032749074127229</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.07287562345542836</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.06552882436180327</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.05841013956380196</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.05162029417505569</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.04523762187519355</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.03932222924318474</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0.03391661864583658</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0.02907208182946064</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.02482123205168704</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.02114351253598522</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0.01802093973441434</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0.01546522274294834</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0.01341542368143594</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0.011834856315482</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0.01068598052194601</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0.009929190050567922</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0.009524913471686214</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0.009433801320998171</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0.009587165289933711</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0.009984691239772456</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0.01058993908249328</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0.01136741434353854</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0.01228415203259466</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0.0133094925344653</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>0.01441548223952351</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>0.01557633176826316</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0.01676915158904401</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>0.01797374642485591</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -687,6 +2493,135 @@
       <c r="E15" t="n">
         <v>-0.02116019188401562</v>
       </c>
+      <c r="F15" t="n">
+        <v>-0.008793647431544135</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.0005733270994809914</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.00697975712035262</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.01057009512148906</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.01154396545593593</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.01014518927142366</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.006650948022530065</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.001357632329501646</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.005432222109231152</v>
+      </c>
+      <c r="O15" t="n">
+        <v>-0.01341969679238299</v>
+      </c>
+      <c r="P15" t="n">
+        <v>-0.02231806659307031</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>-0.03185886041179514</v>
+      </c>
+      <c r="R15" t="n">
+        <v>-0.04179603744037771</v>
+      </c>
+      <c r="S15" t="n">
+        <v>-0.05190859070992328</v>
+      </c>
+      <c r="T15" t="n">
+        <v>-0.06200187764455043</v>
+      </c>
+      <c r="U15" t="n">
+        <v>-0.07190794715334839</v>
+      </c>
+      <c r="V15" t="n">
+        <v>-0.08148509508031854</v>
+      </c>
+      <c r="W15" t="n">
+        <v>-0.09061684211085339</v>
+      </c>
+      <c r="X15" t="n">
+        <v>-0.0992107176373086</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>-0.1071957473264722</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>-0.1145214473681356</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>-0.121155510492914</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>-0.1270328496207098</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>-0.1321347995631112</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>-0.1365230643084321</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>-0.1402261202717931</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>-0.143219856093322</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>-0.1456034459609527</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>-0.1474236532217464</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>-0.1487288547088683</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>-0.1495684432284788</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>-0.1499925660241969</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>-0.1500510393254629</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>-0.1498326843653367</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>-0.1493327454788597</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>-0.1485973662437439</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>-0.147669605066153</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>-0.1465896155299942</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>-0.1453942419904029</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>-0.1441171060534377</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>-0.1427880771219753</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>-0.1414339688456289</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>-0.1400783218179603</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -704,6 +2639,135 @@
       <c r="E16" t="n">
         <v>0.3533004006700949</v>
       </c>
+      <c r="F16" t="n">
+        <v>0.3768125896191805</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.395358728691128</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.4095115824761048</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.419680502619959</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.4262542830111124</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.4296128836036112</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.4301357400117998</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.4281995607835803</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.4241730262109827</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.4184127964442467</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.4112580917120292</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.4030266242135128</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.3940115225517148</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.3844792397751493</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.3746683609908908</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.3647891909589913</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.3550239932717264</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.3455277573421812</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.3364289620732078</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.3278324213638489</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.3198196454448445</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.3124509996869724</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0.305749525331714</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0.2997621205038768</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0.2945287673530346</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0.2900337160529655</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0.2862399502274506</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0.2831443606197661</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0.2807036473988996</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0.2788720440791209</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0.2776014788139575</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0.2768414640152442</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0.2765403260746245</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0.2766585706962601</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0.2771366770487424</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0.2779259248549384</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0.2789792538713571</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0.2802517157462462</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0.2817011896833302</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>0.2832883457832289</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>0.2849777102478915</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0.2867365902119393</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>0.2885357073388695</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -721,6 +2785,135 @@
       <c r="E17" t="n">
         <v>0.5327698852822413</v>
       </c>
+      <c r="F17" t="n">
+        <v>0.542966290314073</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.5478428589409087</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.5484335255906247</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.5456288938812752</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.5401596242481053</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.5326395273025433</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.5235963237060037</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.5134860657699454</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.5027017827337308</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.4915813214804595</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.4804117539257309</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.4694336090100434</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.4588447982657469</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.4488043873608799</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.4394362775348294</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.4308328037829574</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.4230582319131543</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.4161521286191623</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.4101321670376214</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.4049982431443928</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.4007347923192168</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.3973128528915156</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0.3947841785389825</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0.3930891859230775</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0.3920733271989215</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0.3916772140895433</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0.3919031768756253</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0.3926114990812458</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0.393741160503985</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0.3952319246871684</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0.3970261636637362</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0.3990686316835512</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0.4013068377451533</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0.4036875452440544</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0.4061824692643787</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0.4087480535510938</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>0.4113461633601828</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0.4139431445025756</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0.4165098315614511</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>0.4190210505126659</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>0.4214564674995753</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>0.423799014400085</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>0.4260351963083699</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -738,6 +2931,135 @@
       <c r="E18" t="n">
         <v>-0.1049917140861708</v>
       </c>
+      <c r="F18" t="n">
+        <v>-0.1059016691084453</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-0.1078872578569276</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-0.1107261545147673</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-0.1143346771725392</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-0.1186057456018881</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-0.1234192757241198</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-0.1286488537388065</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-0.1341690790155183</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.139858633036752</v>
+      </c>
+      <c r="O18" t="n">
+        <v>-0.1456046959396548</v>
+      </c>
+      <c r="P18" t="n">
+        <v>-0.15130459097078</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>-0.1568673117196895</v>
+      </c>
+      <c r="R18" t="n">
+        <v>-0.1622143316974542</v>
+      </c>
+      <c r="S18" t="n">
+        <v>-0.1672798981689115</v>
+      </c>
+      <c r="T18" t="n">
+        <v>-0.1720109124681174</v>
+      </c>
+      <c r="U18" t="n">
+        <v>-0.1763664855986145</v>
+      </c>
+      <c r="V18" t="n">
+        <v>-0.1803172466289159</v>
+      </c>
+      <c r="W18" t="n">
+        <v>-0.1838444712255428</v>
+      </c>
+      <c r="X18" t="n">
+        <v>-0.186937617632127</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>-0.189599237251317</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>-0.1918347992556673</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>-0.1936576833475013</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>-0.1950367505719233</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>-0.19599403139289</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>-0.1966041458742444</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>-0.1968987585781837</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>-0.1968664446688944</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>-0.196587088755197</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>-0.1960956885347082</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>-0.1954253806418623</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>-0.1946096499074397</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>-0.1936778267957526</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>-0.192657378429043</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>-0.1916106588604747</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>-0.1905205759886077</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>-0.1894075080594943</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>-0.18829095967545</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>-0.1871869865367271</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>-0.1861098027343279</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>-0.1850712657947842</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>-0.1840817864889102</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>-0.1831491404608121</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>-0.1822795491390989</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -755,6 +3077,135 @@
       <c r="E19" t="n">
         <v>0.388447015026921</v>
       </c>
+      <c r="F19" t="n">
+        <v>0.3900856055419044</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.390263089067772</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.3890563947004306</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.386595694662446</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.3830154333314735</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.3784574851846718</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.3730733238762339</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.3670177552416746</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.3604461819164011</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.353509289853536</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.3463501749197824</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.3391015050878349</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.3318835611541548</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.3248029666746203</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.3179520194653344</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.3114085279280228</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.3052360567944492</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.2994844935833127</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.294193076010056</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.2893823773988616</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.2850690916884927</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0.2812578908595469</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0.2779781788652746</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0.2752344530467618</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0.2729799572018491</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0.2711873245236193</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0.2698756806122944</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0.2689612461950421</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0.2684061064510725</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0.2681729725950159</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0.2682220983689918</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0.2685179525013796</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0.2690259039083375</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0.2696478502191284</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0.2704240809143223</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0.2713254051853034</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>0.2723231069980313</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0.2733925424850298</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0.2745109021097712</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>0.2756579858864336</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>0.2768152816707162</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>0.2779674083030378</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>0.2791008273796413</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -772,6 +3223,135 @@
       <c r="E20" t="n">
         <v>0.2567280877580904</v>
       </c>
+      <c r="F20" t="n">
+        <v>0.2787338932514737</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.2955269118135705</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.3077373490279628</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.3158238575070735</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.320232826669538</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.3214047666697525</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.3197744266633332</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.3157678065978305</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.3097940449594392</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.3022422401325379</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.2934756600626782</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.2838283363027935</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.2736027363796767</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.2630685178249484</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.2524622140661549</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.2419876893268939</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.2318172060635665</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.2220929636089796</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.212926628866668</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.2044106773310073</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.1966073392362054</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0.1895593685686361</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0.1833335601859864</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0.1779507525278504</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0.1733586373333958</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0.1695290922410339</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0.1664692519864869</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0.1640974446061171</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0.162363387400586</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0.1612128872503785</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0.1605930041247027</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0.160446637717004</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0.1607170259936597</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0.1613375959233428</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0.162275497081643</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>0.1634783008859837</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>0.1648986153616992</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0.1664905053723437</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0.1682120955337528</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>0.1700247488820468</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>0.1718948775103931</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>0.1737914140173586</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>0.1756873444312674</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -789,6 +3369,135 @@
       <c r="E21" t="n">
         <v>0.5729191588465171</v>
       </c>
+      <c r="F21" t="n">
+        <v>0.5854887894633024</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.5953612376138154</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.602407467237243</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.6068474455492487</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.6089202102490789</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.6088808089125382</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.6069935107393565</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.6035235488154114</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.5987316936539837</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.5928685169376766</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.5861708210174816</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.5788587577140852</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.5711338968337469</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.5631780541062252</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.5551527490165821</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.5471991768740377</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.5394385938491617</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.531973027319521</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.5248872494217027</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.5182459822507233</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.5121009198303561</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0.5064883580893872</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0.5014249832362281</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0.4969331735093518</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0.4930293778245109</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0.4897029540542875</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0.4869280569300014</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0.4846872482186185</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0.4829501279102797</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0.4816817729311985</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0.4808437395109799</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0.48039773981679</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0.480304927815736</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0.4805337354811375</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0.4810410079027847</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0.4817888158799367</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>0.4827407685179926</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0.4838631427783305</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0.4851241021872038</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>0.4864942302947811</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>0.4879460881059043</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>0.4894550664878186</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>0.4909989116861944</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -806,6 +3515,135 @@
       <c r="E22" t="n">
         <v>0.3449779986427849</v>
       </c>
+      <c r="F22" t="n">
+        <v>0.3578635058019695</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.3667853365654785</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.3720893020859834</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.3742127428907257</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.373582280820928</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.3706091432136679</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.3656859195898282</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.3591830350982918</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.3514455097439805</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.3427907311125923</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.333506744399697</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.3238513967888071</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.3140521663581046</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.3043065852732712</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.2947831561604823</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.2856226629188656</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.2769397844869163</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.2688249295806693</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.2613460637143585</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.2545513716077175</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0.2484705629579506</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0.2431174157874425</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0.2385223095804198</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0.2346880432850911</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0.2315630476837683</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0.2291082561432786</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0.2273159141206434</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0.2261065815432561</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0.2254269071534893</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0.2252234953272924</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0.2254431624610442</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0.2260332884538577</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0.2269427134713931</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0.2280999553814352</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0.2294876235397751</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0.2310618415900765</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>0.2327813575032944</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0.2346080996235873</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0.2365074606643585</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>0.2384482862641636</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>0.2404030054184007</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>0.2423473713042437</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>0.2442604376939101</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -823,6 +3661,135 @@
       <c r="E23" t="n">
         <v>-0.08251929688411888</v>
       </c>
+      <c r="F23" t="n">
+        <v>-0.07446765817936918</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-0.06922660312246974</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.06678737001772167</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-0.06690198092632559</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-0.06927018577329969</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-0.07356478623982769</v>
+      </c>
+      <c r="L23" t="n">
+        <v>-0.0794521308823517</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-0.08660622600285285</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.09471775082322548</v>
+      </c>
+      <c r="O23" t="n">
+        <v>-0.1035010964620875</v>
+      </c>
+      <c r="P23" t="n">
+        <v>-0.1126979607392346</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>-0.1220793825641034</v>
+      </c>
+      <c r="R23" t="n">
+        <v>-0.1314463833639617</v>
+      </c>
+      <c r="S23" t="n">
+        <v>-0.1406295942519056</v>
+      </c>
+      <c r="T23" t="n">
+        <v>-0.1494881508707959</v>
+      </c>
+      <c r="U23" t="n">
+        <v>-0.1579080745249723</v>
+      </c>
+      <c r="V23" t="n">
+        <v>-0.1658003095402969</v>
+      </c>
+      <c r="W23" t="n">
+        <v>-0.1730985489079977</v>
+      </c>
+      <c r="X23" t="n">
+        <v>-0.1797564913870155</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>-0.1857472106681416</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>-0.191058616447321</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>-0.1956925225305599</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>-0.1995814655524544</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>-0.2027446251649972</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>-0.2053017328197848</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>-0.2072934329077536</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>-0.2086861137304748</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>-0.2096143803151779</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>-0.2101265014888594</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>-0.2102708227241945</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>-0.2100954233131708</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>-0.2096461835938842</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>-0.2089667752264108</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>-0.2081423260328458</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>-0.2071573379369222</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>-0.2060490656615862</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>-0.204851695386758</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>-0.2035957351132514</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>-0.2023084523079956</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>-0.2010137032349288</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>-0.1997325360942009</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>-0.1984827365372941</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>-0.1972791266349616</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -840,6 +3807,135 @@
       <c r="E24" t="n">
         <v>3.203418514565308</v>
       </c>
+      <c r="F24" t="n">
+        <v>3.016867786348124</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2.844405141217088</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2.679251376037335</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2.521964372988059</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2.373263117061863</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.233844162578087</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2.104248125886811</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.9848325059529</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.875776491551</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.77708867425669</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.68863304101402</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.61015294288078</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.541293734546556</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.481623284733867</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.430650057382902</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.387838821837629</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.352624199667575</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.32442229926064</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1.302642711649536</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>1.286693116018258</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1.275984561184204</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>1.269945691499124</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1.26821561857821</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>1.270202413759625</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>1.275244389924455</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1.28285193285533</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>1.292513460631173</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>1.303863766572154</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>1.316518040082026</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>1.330124440610227</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>1.344368065841413</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>1.358973158626871</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>1.373703627666905</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>1.38870903729616</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>1.403394519464203</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>1.417623620421333</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>1.431284088546642</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>1.444286937832332</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>1.456564202291266</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>1.468068721197044</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>1.478765366613091</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>1.488636531242224</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>1.497679931991419</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -857,6 +3953,135 @@
       <c r="E25" t="n">
         <v>0.3645279892756974</v>
       </c>
+      <c r="F25" t="n">
+        <v>0.3520628632438504</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.3408466098531441</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.3310717035877804</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.3224772129835779</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.3149850555852765</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.3085372671958322</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.3030818137884086</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.2985659599022499</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.2949367515931284</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.292138582330815</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.290114024869893</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.2888040404988511</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.2881484382541748</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.2880864093901551</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.2885570935056728</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.289500148006551</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.2908563014318386</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.2925678760600707</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.2945815402702905</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.2968396571716406</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.2992941931346017</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0.3018981219692909</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0.3045827597183697</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0.3073744894628844</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0.3102667148815098</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0.313145160312385</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0.3159420553956299</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0.3187332514900345</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0.3214301526120391</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0.3240134475756866</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0.3264683522297817</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0.3287867233199632</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0.3309630280158531</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0.3330149497397503</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0.3348878611614787</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0.3366136478383669</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>0.338195709404488</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0.3396389797211929</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0.3409489400849202</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>0.3421323246730114</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>0.3431957337931962</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>0.3441472745602711</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>0.3449951161591141</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -874,6 +4099,135 @@
       <c r="E26" t="n">
         <v>0.2907737840146433</v>
       </c>
+      <c r="F26" t="n">
+        <v>0.2743082557899579</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.2574511513020236</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.2407370668601679</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.224351297152507</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.2085640905684697</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.193582693627897</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.1795668562406392</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.1666342008158642</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.1548677093840486</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.1443193711661492</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.1350138538749379</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.1269515661140816</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.1201117873924724</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.114455766219476</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.109929761731645</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.1064679789142832</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.103995346547328</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.1024300955264221</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.1016885214481768</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.10167704894428</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0.1023098328689157</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0.1034991671552807</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0.1052354317223775</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0.1075086718098469</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0.1101457042899571</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0.112980894441741</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0.1160179766224621</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0.1191836423466954</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0.1223506594746537</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0.1254754534209765</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0.128521406647515</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0.1314607472462231</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>0.1342698844026702</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0.1368838413310864</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0.1393140111987675</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0.141582039422041</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>0.1436791293733574</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>0.1456004892380869</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>0.1473441221460915</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>0.1489110765327951</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>0.150304733624293</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>0.1515311344758553</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>0.152597543440446</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -891,6 +4245,135 @@
       <c r="E27" t="n">
         <v>0.1717950268233164</v>
       </c>
+      <c r="F27" t="n">
+        <v>0.1538423323097087</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.1373654284557737</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.1222578686666036</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.1081583809893096</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.09501273660100511</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.08281640121584002</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.07158385567159728</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.06133502234528052</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.05208730081638699</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.0438507554849869</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.03662513648089315</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.03039873394604563</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.02514829982754594</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.02083972267252935</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.01742918919576305</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.01486463251197341</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.01308732012274149</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.01203347541178437</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0.01163577627939171</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0.01182529527271817</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0.01253196931393151</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0.01368651888849024</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0.01520879725821465</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0.01715145196982868</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0.01945462669472121</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0.02192929869892708</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0.02451239513505792</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0.02725238209984149</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0.03000146800319998</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0.03271765766182953</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0.03537051472160862</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0.03793436068134431</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>0.04038818935910795</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0.04271390618016876</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>0.04486261316309514</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>0.04686931079594685</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>0.04872937896363633</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>0.05043870121625395</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>0.05199588936847268</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>0.05340190218100338</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>0.05465994528311732</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>0.05577470904034483</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>0.05675230348991153</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -908,6 +4391,135 @@
       <c r="E28" t="n">
         <v>0.9717092774440265</v>
       </c>
+      <c r="F28" t="n">
+        <v>0.9293555898721866</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.8985265634280766</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.8757707862840315</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.8588482640695604</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.8463191509499181</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.8371847102459574</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.8307105136494594</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.8263435942967436</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.8236590745492159</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.8223212401169033</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.8220619455918937</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.8226650380127706</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.8239550311749024</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.8257887143070118</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.8280487442288674</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.8306386438640125</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.8334788431807103</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.8365035209410523</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0.839656599506945</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.8428978132656064</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0.8461848033499521</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0.8494863828183989</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0.8525819261271553</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0.8555610290609357</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0.8586348163521093</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0.8616961011808403</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0.8645459463486035</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0.8674325087703044</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0.8702699222180843</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0.8730339377861217</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0.8757110290418088</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0.8782893440927211</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>0.880763302749196</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0.8832236415362513</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>0.8855224105814956</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>0.8876937881251632</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>0.8897472894881995</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>0.8916890377173655</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>0.8935255224357906</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>0.8952638803340321</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>0.8969089783246874</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>0.8984663976837129</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>0.8999420979792792</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -925,6 +4537,135 @@
       <c r="E29" t="n">
         <v>2.986839181762981</v>
       </c>
+      <c r="F29" t="n">
+        <v>2.811082934899824</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2.650870807568708</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2.501796171870546</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2.363235791492631</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2.235003176914905</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2.11709529815119</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2.009526801009761</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.912272303046173</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1.825234259922783</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.74823031359099</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.680994634340804</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.623184653998096</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.574390223414635</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.534144023339435</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.501932318487652</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.477205545841679</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.459388446945281</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.447889574684726</v>
+      </c>
+      <c r="X29" t="n">
+        <v>1.442105432542594</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>1.441449185107455</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>1.445322386623531</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>1.453149084245997</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>1.46458720763972</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>1.479105579119051</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>1.496001350122819</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>1.514748686238605</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>1.534949473693749</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>1.556145389146185</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>1.577931610106796</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>1.599957082193379</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>1.621923847509947</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>1.643570297525589</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>1.664678661936475</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>1.68523080824299</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>1.704881244078285</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>1.723528268160199</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>1.741094927497795</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>1.757523644321478</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>1.772779771115017</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>1.786848483743398</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>1.799730874716836</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>1.811442391883827</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>1.822013559119983</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -942,6 +4683,135 @@
       <c r="E30" t="n">
         <v>0.8091067248223721</v>
       </c>
+      <c r="F30" t="n">
+        <v>0.7787903712248363</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.7518297347576672</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.7283929270784282</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.7080414871509959</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.6905296652152114</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.6756162115671721</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.6630719293633126</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.6526819825182605</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.6442465148668374</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.6375811041281223</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.6325145952160132</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.6288874272658865</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.6265501754805256</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.6253623880662997</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.6251917306562496</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.6259134027023778</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.6274097734665373</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0.6295701827195126</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.6322911731874934</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0.6354747687806925</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0.6390318748352346</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0.6428792950920431</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0.6469005021486539</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0.6511297666203658</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0.655545273510822</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0.6599718487739368</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0.6643138696879435</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0.6686644851388948</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0.6728906733533065</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0.676958159860091</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>0.6808439518450989</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>0.6845309806272653</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>0.6880063737022573</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>0.6912870341572198</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>0.6943022641009424</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>0.6970929595335135</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>0.6996635124845434</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>0.7020188935352667</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>0.7041660721146956</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>0.7061135456172296</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>0.7078720458737654</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>0.7094530474748109</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>0.7108686057825675</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -959,6 +4829,135 @@
       <c r="E31" t="n">
         <v>-0.3621944556951715</v>
       </c>
+      <c r="F31" t="n">
+        <v>-0.3813368336167492</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.3973385956602209</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-0.4107365541895481</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-0.4223458385650146</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-0.4325382477758892</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-0.4415341626970878</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-0.4494660786220141</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-0.4564151716905063</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.4624318767409228</v>
+      </c>
+      <c r="O31" t="n">
+        <v>-0.467553034371002</v>
+      </c>
+      <c r="P31" t="n">
+        <v>-0.4718106875503476</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>-0.4752379804114277</v>
+      </c>
+      <c r="R31" t="n">
+        <v>-0.4778724114599211</v>
+      </c>
+      <c r="S31" t="n">
+        <v>-0.4797573065011224</v>
+      </c>
+      <c r="T31" t="n">
+        <v>-0.4809420955652176</v>
+      </c>
+      <c r="U31" t="n">
+        <v>-0.4814818145405498</v>
+      </c>
+      <c r="V31" t="n">
+        <v>-0.4814361335431578</v>
+      </c>
+      <c r="W31" t="n">
+        <v>-0.48086812833237</v>
+      </c>
+      <c r="X31" t="n">
+        <v>-0.4798410182006346</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>-0.4784241991351114</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>-0.4766816450796725</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>-0.4746770897187542</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>-0.4724342062150688</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>-0.4699034235169799</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>-0.4671928193834824</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>-0.4644736851872182</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>-0.461745029319597</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>-0.4590154681227911</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>-0.4564150996397918</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>-0.4539724462688985</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>-0.4517075575057458</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>-0.4496329523734391</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>-0.447756697700491</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>-0.4461354321568041</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>-0.4447495089364044</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>-0.4435554147994353</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>-0.4425492435276642</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>-0.4417255391741112</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>-0.441077241220282</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>-0.4405952132269403</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>-0.4402699994887569</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>-0.4400903147004134</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>-0.4400443453462449</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -976,6 +4975,135 @@
       <c r="E32" t="n">
         <v>0.7005039559303849</v>
       </c>
+      <c r="F32" t="n">
+        <v>0.6776652697276225</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.6573572435293132</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.6392746778723666</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.6231013566338999</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.608698403075235</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.5959518559031752</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.584761304687891</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.5750355905638076</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.56668780415664</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.5596342224830424</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.5537916737150513</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.5490766145450315</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.5454047517430102</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.5426911259646345</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.5408505115890435</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.5397980109983694</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.5394497488859811</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0.539723596354996</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0.5405385465671588</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0.541820655922916</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0.5434957765105002</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0.545495096346497</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0.547745665970452</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0.5502683656326234</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0.5530070819943932</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0.5558266507325863</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0.5586841300185464</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0.5615965620754787</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>0.5644631102883075</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0.5672524584265112</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>0.5699440552988139</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>0.5725198431463611</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>0.5749659064747946</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>0.5772651912403005</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>0.5793959749781653</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>0.5813822503501411</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>0.5832244698002593</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>0.5849228246480931</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>0.5864798725213091</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>0.5878996032269832</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>0.5891883395643518</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>0.5903526862517711</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>0.5914002561514319</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -993,6 +5121,135 @@
       <c r="E33" t="n">
         <v>0.8378338608580137</v>
       </c>
+      <c r="F33" t="n">
+        <v>0.8246215837875583</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.8123227085983679</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.8013392267574689</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.7915899617063349</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.7830708971470831</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.7757434859300817</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.7695493684427189</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.7644212040692566</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.7602853776137127</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.7570679979465889</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.7546948060927877</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.7530920779905137</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.7521871403785401</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.7519087880059381</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.7521876720454987</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.7529566775537662</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0.754151286643116</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0.7557099172161785</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0.7575717443903921</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0.7596865269488121</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0.762001229066796</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0.7644684897799808</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0.7670252190430636</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0.7697044080009888</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0.7724809953622248</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0.7752427167824263</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0.7779478823823316</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0.7806482264663622</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>0.7832607325808398</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>0.7857674604357942</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>0.7881608635591041</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>0.7904326438382531</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>0.7925768848400077</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>0.7946025159270126</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>0.7964737306216192</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>0.7982181224267584</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>0.7998406431503438</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>0.8013442642313325</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>0.802733708598899</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>0.8040140794069079</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>0.8051930319801053</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>0.8062772628091642</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>0.8072740850479018</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1010,6 +5267,135 @@
       <c r="E34" t="n">
         <v>-0.7581948332844869</v>
       </c>
+      <c r="F34" t="n">
+        <v>-0.7739140050135433</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-0.7886428766493432</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-0.802080441494183</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-0.8143859586717594</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-0.8255531635557743</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-0.8355778673615871</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-0.8444707574142516</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-0.8522562964444805</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.8589730651557028</v>
+      </c>
+      <c r="O34" t="n">
+        <v>-0.8646703934632327</v>
+      </c>
+      <c r="P34" t="n">
+        <v>-0.869407160213801</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>-0.8732496182803364</v>
+      </c>
+      <c r="R34" t="n">
+        <v>-0.8762694176593971</v>
+      </c>
+      <c r="S34" t="n">
+        <v>-0.8785417570504437</v>
+      </c>
+      <c r="T34" t="n">
+        <v>-0.8801437007291002</v>
+      </c>
+      <c r="U34" t="n">
+        <v>-0.8811526815371732</v>
+      </c>
+      <c r="V34" t="n">
+        <v>-0.8816451980602041</v>
+      </c>
+      <c r="W34" t="n">
+        <v>-0.8816957051589541</v>
+      </c>
+      <c r="X34" t="n">
+        <v>-0.8813776941294788</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>-0.8807548522560315</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>-0.8798927255114641</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>-0.87885007725868</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>-0.8776676426890321</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>-0.8763153689490121</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>-0.874861247881028</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>-0.8734337744161691</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>-0.8720500568415865</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>-0.8706867744554109</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>-0.8694376939162415</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>-0.8683226492294047</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>-0.8673501495602954</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>-0.8665278483897807</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>-0.8658597548844462</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>-0.8653657430230411</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>-0.8650531977790004</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>-0.8648870727149467</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>-0.8648590586943343</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>-0.8649627297077251</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>-0.8651900341124155</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>-0.8655323094253078</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>-0.8659793118916852</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>-0.8665213704242853</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>-0.8671482396300307</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1027,6 +5413,135 @@
       <c r="E35" t="n">
         <v>0.8284664945714677</v>
       </c>
+      <c r="F35" t="n">
+        <v>0.8228507825827469</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.8182442568790312</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.814550147735048</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.8117581816359304</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.8098312640414702</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.8087118356646975</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.8083286642829327</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.8086017469407548</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.8094471694051802</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.8107801500648927</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.8125178913789376</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.8145815009879284</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.8168973631045064</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.8193980398123633</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.8220227968744942</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.8247178345545882</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0.8274362906863509</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0.8301380713774693</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.8327901198458687</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0.8353637766819857</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0.8378376796554299</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0.8401950829575133</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0.8424109187413243</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0.8444734561838102</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0.8463924227867037</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0.8481682130827413</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0.8497881722818702</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0.8512726604231636</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>0.8526283487650856</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>0.8538636090408576</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>0.8549868672778187</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>0.8560078782083597</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>0.8569365913621884</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>0.857793551111952</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>0.8585751006430422</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>0.8592913864583278</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>0.8599514868338269</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>0.8605644522147781</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>0.861138662177837</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>0.8616819758268717</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>0.8622013830155236</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>0.8627034679530915</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>0.8631940500119244</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1044,6 +5559,135 @@
       <c r="E36" t="n">
         <v>0.7762855779320081</v>
       </c>
+      <c r="F36" t="n">
+        <v>0.7695927092766733</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.7640329503443507</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.7596838687433616</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.7565795852355867</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.7546896668178863</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.7539393594979845</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.7542258871331867</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.7554300451971411</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.7574244438400539</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.7600802185751937</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.7632714493107802</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.7668784189357308</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.7707898388318086</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.7749042769728223</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.7791309684824316</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.783390150471864</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0.787613034086896</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0.7917415042381788</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0.7957274050794136</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0.7995326720218506</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0.8031275949656246</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0.8064905565305734</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>0.8096019407931385</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0.8124446073742945</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0.8150183897808824</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0.817329572980678</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0.8193779032836179</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>0.8211834042190079</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>0.82276213770289</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>0.8241314014591121</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>0.8253095720066691</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>0.8263151145195295</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>0.8271664662659567</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>0.8278921142862988</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>0.8284971780373163</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>0.8289988755704637</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>0.8294138126235137</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>0.829757513429057</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>0.8300445032393711</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>0.830288105498393</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>0.8305006772665594</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>0.8306932423418099</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>0.8308755955960213</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1061,6 +5705,135 @@
       <c r="E37" t="n">
         <v>0.7235306239010018</v>
       </c>
+      <c r="F37" t="n">
+        <v>0.7184950193335976</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.7140002556470808</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.710273230793534</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.7074535686670614</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.7056189891505307</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.7047926457074205</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.7049523182698446</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.7060410418356015</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.7079773149961239</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.7106630054738837</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.7139906242093791</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.7178489331091145</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.7221273192252639</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.7267191001507152</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.731523932737396</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.7364494834610267</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0.7414124997693305</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0.7463394019015535</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0.7511667651513436</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0.7558401921192396</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0.7603154801122606</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0.7645572903944742</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0.7685578650941463</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0.7722774903175622</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0.7756803711258096</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0.7787664857412286</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0.7815366777839048</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>0.7839972487295656</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>0.7861626287944135</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>0.7880500285071633</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>0.7896780892108777</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>0.7910671619085388</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>0.7922384243124975</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>0.7932359118974499</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>0.7940534872085655</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>0.7947128957271121</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>0.7952347055200045</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>0.7956389222934862</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>0.7959445099102447</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>0.7961694033875318</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>0.7963300446549229</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>0.7964417414017649</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>0.7965185581439832</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1078,6 +5851,135 @@
       <c r="E38" t="n">
         <v>0.6786434609929237</v>
       </c>
+      <c r="F38" t="n">
+        <v>0.6732149897765538</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.6678925684925776</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.6627775800562153</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.6580039265440959</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.6536715155283688</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.6498508805010927</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.6465867292861543</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.6439021917952424</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.6418018352337557</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.6402753605823848</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.6393003829215977</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.6388451551918192</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.6388709670868042</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.6393342490072497</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.6401883896163183</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.6413852813175812</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0.6428766120864345</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0.6446149246941415</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0.6465538622134389</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0.6486511870586644</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0.6508658350765506</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0.653160490897714</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0.655546340067538</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0.6579846860074644</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0.6603924117305738</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0.6627486435949168</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0.6650770278319076</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>0.6673124911291379</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>0.6694458070261164</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>0.6714698381383424</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>0.6733805810887858</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>0.6751753274526793</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>0.6768533211752963</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>0.6783967985415325</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>0.6798322978761573</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>0.6811620709487867</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>0.6823902330009231</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>0.6835214390680836</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>0.6845612406367562</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>0.685515667171561</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>0.6863913923283363</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>0.6871950761380042</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>0.687933561314892</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1095,6 +5997,135 @@
       <c r="E39" t="n">
         <v>0.5985557024898739</v>
       </c>
+      <c r="F39" t="n">
+        <v>0.596437886532069</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.59481078880962</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.5937002877321977</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.5931239256439682</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.5930748147466869</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.5935265586095079</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.5944375504622508</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.5957558684083333</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.5974234510880908</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.5993794359373552</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.6015629252207049</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.6039150620033611</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.6063805376150962</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.6089086293777151</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.6114538554092875</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.6139763237614659</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0.6164418423113724</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0.6188218452824604</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0.6210931520711596</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0.6232378371986537</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0.6252424764593674</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0.6270980701303666</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0.6288023447758309</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0.6303463371438862</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0.6317266399149388</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0.632950066590532</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0.6340218331202946</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>0.6349522388168559</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>0.6357529756625522</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>0.6364359641934511</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>0.6370133753798967</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>0.6374973224544653</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>0.6378997987579857</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>0.6382378951102775</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>0.6385148717095462</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>0.638741502411112</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>0.6389279484293819</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>0.6390836155288016</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>0.6392171568671875</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>0.6393364507918439</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>0.6394485140029852</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>0.6395595725862373</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>0.6396751070966425</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1112,6 +6143,135 @@
       <c r="E40" t="n">
         <v>0.7912899348531612</v>
       </c>
+      <c r="F40" t="n">
+        <v>0.788081697138053</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.7847791261773901</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.7815720259874953</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.778693510526355</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.7762904390385518</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.7744457295904313</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.7731954888563762</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.7725415417132923</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.7724606599468352</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.7729124675014207</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.7738450897732754</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.7751997246889628</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.7769141927502018</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.7789256703168581</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.7811727593922922</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.7835970165295132</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0.7861440410575501</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0.7887642056625944</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0.791412839825378</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0.794051416697231</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0.7966462506821386</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0.799169149288592</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0.8016215613765573</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0.8039719958947444</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0.8061741539533785</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0.8082232927223677</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0.8101310731640458</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>0.8118759580319561</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>0.8134637444335165</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>0.814901337689489</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>0.816197281004957</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>0.817360751246367</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>0.8184016174461936</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>0.8193365721703841</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>0.820170699287688</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>0.820913940545818</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>0.8215767785043969</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>0.8221694260739238</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>0.8227019076550312</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>0.8231837857464643</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>0.8236243600097457</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>0.8240321271108264</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>0.8244150954386112</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1129,6 +6289,135 @@
       <c r="E41" t="n">
         <v>0.5493234553770751</v>
       </c>
+      <c r="F41" t="n">
+        <v>0.549802233583415</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.5503750235484162</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.5510740707242797</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.5519059901597425</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.5528858362563978</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.5540278134520631</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.5553399845008056</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.5568224807697264</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.5584688502939207</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.560266097273586</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.562196580978011</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.5642393939520143</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.5663716537466378</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.5685696158277188</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0.570809593024218</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.5730686882183034</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0.575325356808371</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0.5775598191690965</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0.5797551851363083</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0.5818943326476005</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0.5839647623510242</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0.5859556116105713</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0.587877970460697</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0.5897147155233032</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0.5914380416799804</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0.5930490100671976</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0.5945591599729529</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>0.5959546242384214</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>0.5972408564676622</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>0.5984241266137421</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>0.5995099596370869</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>0.6005054638108599</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>0.601417970993595</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>0.6022545342199878</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>0.6030228117628857</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>0.6037298483298021</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>0.604381763039858</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>0.6049851976565207</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>0.6055463662588043</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>0.6060713876299947</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>0.6065654967525691</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>0.607034067952963</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>0.6074819400847625</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1146,6 +6435,135 @@
       <c r="E42" t="n">
         <v>0.6693587422218001</v>
       </c>
+      <c r="F42" t="n">
+        <v>0.657888666940329</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.647502570138347</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.6382215635035097</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.6301675929742254</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.6234030104793439</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.6179417804727505</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.6137591048824438</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.6107993501252877</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.6089840912628637</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.6082182543665199</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.6083960103053718</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.6094055119060554</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.6111328246115173</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.6134651005565037</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0.6162930812878934</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.619513013888079</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0.6230280613079586</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0.6267492818412603</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0.6305967867515637</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0.6344978552795736</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0.6383903401494678</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0.6422203037332617</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>0.6459924243255104</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0.6496510083311239</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0.6531043209798512</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0.6563361911826469</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0.6593730096471032</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>0.662156334559427</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>0.6646881822754251</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>0.6669735711615777</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>0.6690196925806677</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>0.6708370160731864</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>0.6724378931341958</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>0.6738209036214129</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>0.6750190634828824</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>0.676046632048808</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>0.6769184355808258</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>0.6776501298291634</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>0.6782572869382728</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>0.678755345181818</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>0.6791590790683342</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>0.6794829070308177</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>0.6797404377596001</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1163,6 +6581,135 @@
       <c r="E43" t="n">
         <v>0.6889704919447767</v>
       </c>
+      <c r="F43" t="n">
+        <v>0.6857898676568934</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.6822692372182778</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.6787158848510404</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.6753664230385534</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.6723830848051382</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.6698704958561987</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.6678893380061259</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.6664666905226454</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.6656036126822582</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.6652820303780491</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.6654697210631281</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.6661245415374619</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.6671978503405837</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.668637272807853</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0.6703889145570102</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.67239910935831</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0.6746157734485622</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0.6769894279283073</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0.6794735214185955</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0.6820264949081418</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0.684610007055798</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0.6871902955025307</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>0.6897801651130748</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0.6923407188017301</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0.6947983411459995</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>0.6971400948378729</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>0.699387431715315</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>0.7014929197747457</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>0.7034551616891682</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>0.7052747189759742</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>0.7069544979009819</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>0.7084984023047842</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>0.709911581791128</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>0.711193721678011</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>0.7123618001796551</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>0.7134225621135213</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>0.714383794929464</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>0.7152534812982907</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>0.7160399656581814</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>0.71675160086697</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>0.7173969746619099</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>0.7179842747354107</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>0.7185214834737121</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1180,6 +6727,135 @@
       <c r="E44" t="n">
         <v>0.6877485942212573</v>
       </c>
+      <c r="F44" t="n">
+        <v>0.6843609867930005</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.6819758383110494</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.6805489737400864</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.6800037624813394</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.680253247327224</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.6812047955511753</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.6827644268440938</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.6848390035534643</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.6873383518434744</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.6901765928278775</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.6932732793832646</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.6965541450243748</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.6999516172089447</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.7034051137698974</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0.7068611556365592</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.7102733253391018</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0.7136020981092339</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0.7168145700280542</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0.7198844153104642</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0.7227901838147056</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>0.725516862617899</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0.728053976102278</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0.7303953038481488</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0.7325301280131697</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0.7344585258161417</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>0.7361876420062372</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>0.737718112012815</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>0.7390661266826155</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>0.7402449413157328</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>0.7412686957252316</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>0.7421515146001243</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>0.7429081094207219</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>0.7435529782424231</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>0.7441133811148919</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>0.7445878648619669</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>0.7449894201481509</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>0.7453302407938629</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>0.745622032348943</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>0.7458756002219833</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>0.7461008915475498</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>0.7463068837924528</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>0.7465016949349864</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>0.7466925541045178</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1197,6 +6873,135 @@
       <c r="E45" t="n">
         <v>0.685913236745014</v>
       </c>
+      <c r="F45" t="n">
+        <v>0.6790576366305174</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.6736403911561499</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.6697478706541604</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.6673940460612147</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.6665247410846131</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.6670372951220903</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.6687963296909132</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.6716461418696514</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.6754208883240825</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.6799523008380604</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.6850757232591879</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.6906344983978382</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.696483081370366</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.7024891077340835</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.7085346220389206</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.7145166406591885</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0.7203471947218936</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0.7259529746100816</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0.7312748819726455</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0.7362663146863884</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0.7408934577792926</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>0.7451332836586579</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>0.7489725226029369</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>0.7523895507413597</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>0.7553839080939367</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>0.7579727542902501</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>0.7601643572678527</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>0.761988919827734</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>0.7634759985988252</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>0.7646558100208738</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>0.7655588554011004</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>0.7662159967471779</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>0.7666576124448371</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>0.7669278598946845</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>0.7670361180581251</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>0.7670093096767033</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>0.7668729012338098</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>0.7666508311704028</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>0.7663651349115425</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>0.7660359264175947</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>0.7656812730452888</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>0.7653173303859517</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>0.7649582830407207</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1214,6 +7019,135 @@
       <c r="E46" t="n">
         <v>-1.2799382507096</v>
       </c>
+      <c r="F46" t="n">
+        <v>-1.284426338888753</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-1.289956994777982</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-1.296112361731034</v>
+      </c>
+      <c r="I46" t="n">
+        <v>-1.302593607679842</v>
+      </c>
+      <c r="J46" t="n">
+        <v>-1.30917339661494</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-1.315681593509839</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-1.321994626809045</v>
+      </c>
+      <c r="M46" t="n">
+        <v>-1.328026542299685</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-1.333721967407722</v>
+      </c>
+      <c r="O46" t="n">
+        <v>-1.339049744147954</v>
+      </c>
+      <c r="P46" t="n">
+        <v>-1.34399785402962</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>-1.348569012240689</v>
+      </c>
+      <c r="R46" t="n">
+        <v>-1.352776971844695</v>
+      </c>
+      <c r="S46" t="n">
+        <v>-1.356643438301426</v>
+      </c>
+      <c r="T46" t="n">
+        <v>-1.360195519494395</v>
+      </c>
+      <c r="U46" t="n">
+        <v>-1.363463644065994</v>
+      </c>
+      <c r="V46" t="n">
+        <v>-1.366479886839919</v>
+      </c>
+      <c r="W46" t="n">
+        <v>-1.369276645441949</v>
+      </c>
+      <c r="X46" t="n">
+        <v>-1.371885867516504</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>-1.374337239904499</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>-1.376659236660076</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>-1.378877673880387</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>-1.380896821731154</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>-1.382750790467466</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>-1.38459481691539</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>-1.386438230088774</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>-1.388172843701277</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>-1.389935842965529</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>-1.391727887909783</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>-1.39354904055361</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>-1.395398074128335</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>-1.397273309655106</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>-1.399172281130065</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>-1.401184670465163</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>-1.40320671385786</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>-1.405236389811922</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>-1.407270595208915</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>-1.409305987669821</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>-1.411338871948483</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>-1.413365440883223</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>-1.415381737551092</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>-1.417384016242737</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>-1.41936859703996</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1231,6 +7165,135 @@
       <c r="E47" t="n">
         <v>-0.9958372472787841</v>
       </c>
+      <c r="F47" t="n">
+        <v>-1.000047044076946</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-1.004904352882632</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-1.010118090484812</v>
+      </c>
+      <c r="I47" t="n">
+        <v>-1.01548151257776</v>
+      </c>
+      <c r="J47" t="n">
+        <v>-1.020838532013799</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-1.02607300901176</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-1.031101870869882</v>
+      </c>
+      <c r="M47" t="n">
+        <v>-1.035868910196029</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-1.040339927554091</v>
+      </c>
+      <c r="O47" t="n">
+        <v>-1.04449815644014</v>
+      </c>
+      <c r="P47" t="n">
+        <v>-1.048340598438654</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>-1.051874783592412</v>
+      </c>
+      <c r="R47" t="n">
+        <v>-1.055116033726889</v>
+      </c>
+      <c r="S47" t="n">
+        <v>-1.058085165162052</v>
+      </c>
+      <c r="T47" t="n">
+        <v>-1.0608065848544</v>
+      </c>
+      <c r="U47" t="n">
+        <v>-1.063306735792354</v>
+      </c>
+      <c r="V47" t="n">
+        <v>-1.06561284932762</v>
+      </c>
+      <c r="W47" t="n">
+        <v>-1.067751964376432</v>
+      </c>
+      <c r="X47" t="n">
+        <v>-1.069750431751731</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>-1.071632286633706</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>-1.073420522716324</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>-1.07513570141985</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>-1.076700556415168</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>-1.078141659354438</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>-1.079583200197748</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>-1.081031446503327</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>-1.08239706324172</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>-1.083791706197797</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>-1.085214680182172</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>-1.086665406264626</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>-1.088142216887079</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>-1.089643165573778</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>-1.091165661439281</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>-1.092784722941072</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>-1.09441245055606</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>-1.096046988433718</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>-1.097685342183995</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>-1.099324408445493</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>-1.100960836146581</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>-1.102591235598194</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>-1.104212142575201</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>-1.105820319754661</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>-1.107412623288691</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1248,6 +7311,135 @@
       <c r="E48" t="n">
         <v>-0.8726406832072109</v>
       </c>
+      <c r="F48" t="n">
+        <v>-0.8752624183606914</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-0.8787761628358481</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-0.8827491019825612</v>
+      </c>
+      <c r="I48" t="n">
+        <v>-0.8869205787738002</v>
+      </c>
+      <c r="J48" t="n">
+        <v>-0.8911054950462884</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-0.8951758385149682</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-0.8990472526073046</v>
+      </c>
+      <c r="M48" t="n">
+        <v>-0.9026687254132263</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.9060148720461664</v>
+      </c>
+      <c r="O48" t="n">
+        <v>-0.9090792593858954</v>
+      </c>
+      <c r="P48" t="n">
+        <v>-0.9118694340082826</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>-0.9144028036936425</v>
+      </c>
+      <c r="R48" t="n">
+        <v>-0.9167033493105448</v>
+      </c>
+      <c r="S48" t="n">
+        <v>-0.9187990136820843</v>
+      </c>
+      <c r="T48" t="n">
+        <v>-0.9207196534189159</v>
+      </c>
+      <c r="U48" t="n">
+        <v>-0.9224954598121444</v>
+      </c>
+      <c r="V48" t="n">
+        <v>-0.9241557697528904</v>
+      </c>
+      <c r="W48" t="n">
+        <v>-0.9257281993197903</v>
+      </c>
+      <c r="X48" t="n">
+        <v>-0.9272382946983424</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>-0.9287081384780915</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>-0.9301576113914247</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>-0.9316033929938912</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>-0.9329682036864329</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>-0.934273431121212</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>-0.9356332065878296</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>-0.9370477255323397</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>-0.938423587460936</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>-0.9398633500930373</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>-0.941360602079466</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>-0.9429090917754638</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>-0.9445018847674687</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>-0.9461321863501145</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>-0.9477930640048027</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>-0.9495590649183188</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>-0.9513357054341739</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>-0.9531178518619187</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>-0.9548998276276727</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>-0.9566762319618045</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>-0.9584417983577975</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>-0.9601915965746008</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>-0.9619208909957224</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>-0.9636254903867476</v>
+      </c>
+      <c r="AV48" t="n">
+        <v>-0.9653016172101563</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1265,6 +7457,135 @@
       <c r="E49" t="n">
         <v>-0.6373751075903715</v>
       </c>
+      <c r="F49" t="n">
+        <v>-0.6391278314767107</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-0.6417836384936386</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-0.644944571192442</v>
+      </c>
+      <c r="I49" t="n">
+        <v>-0.6483577275278788</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-0.6518415002825277</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-0.655268897485449</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-0.6585544650938103</v>
+      </c>
+      <c r="M49" t="n">
+        <v>-0.6616446479657461</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-0.6645102220462613</v>
+      </c>
+      <c r="O49" t="n">
+        <v>-0.6671401267961614</v>
+      </c>
+      <c r="P49" t="n">
+        <v>-0.6695366841088553</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>-0.6717117418828452</v>
+      </c>
+      <c r="R49" t="n">
+        <v>-0.6736836007456842</v>
+      </c>
+      <c r="S49" t="n">
+        <v>-0.6754745839887956</v>
+      </c>
+      <c r="T49" t="n">
+        <v>-0.6771091373031521</v>
+      </c>
+      <c r="U49" t="n">
+        <v>-0.6786123659290538</v>
+      </c>
+      <c r="V49" t="n">
+        <v>-0.6800089324996996</v>
+      </c>
+      <c r="W49" t="n">
+        <v>-0.6813222511065306</v>
+      </c>
+      <c r="X49" t="n">
+        <v>-0.6825739261271134</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>-0.6837833845024769</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>-0.6849676131143576</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>-0.6861411668089068</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>-0.6872422219689587</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>-0.6882893956693549</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>-0.6893755889268793</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>-0.6905018962064096</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>-0.6915943701406109</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>-0.6927351195049303</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>-0.6939196929963811</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>-0.6951432800405064</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>-0.6964007168217365</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>-0.6976866140163344</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>-0.6989954808302452</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>-0.7003869918796417</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>-0.7017860965775332</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>-0.7031884955102983</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>-0.704589778951507</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>-0.7059855894882198</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>-0.7073717147484311</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>-0.7087441810991972</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>-0.7100992326356264</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>-0.7114334780168057</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>-0.7127438668030945</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1282,6 +7603,135 @@
       <c r="E50" t="n">
         <v>-0.05052676575105466</v>
       </c>
+      <c r="F50" t="n">
+        <v>-0.05342243114081721</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-0.05635487292316512</v>
+      </c>
+      <c r="H50" t="n">
+        <v>-0.05928624973919722</v>
+      </c>
+      <c r="I50" t="n">
+        <v>-0.06216962766587932</v>
+      </c>
+      <c r="J50" t="n">
+        <v>-0.06496896705932402</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-0.06765673436534107</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-0.07021259075471811</v>
+      </c>
+      <c r="M50" t="n">
+        <v>-0.07262262071303294</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-0.07487832949769181</v>
+      </c>
+      <c r="O50" t="n">
+        <v>-0.0769759489837285</v>
+      </c>
+      <c r="P50" t="n">
+        <v>-0.0789156101860711</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>-0.08070062211578985</v>
+      </c>
+      <c r="R50" t="n">
+        <v>-0.0823368008369194</v>
+      </c>
+      <c r="S50" t="n">
+        <v>-0.08383186458819412</v>
+      </c>
+      <c r="T50" t="n">
+        <v>-0.08519489889725164</v>
+      </c>
+      <c r="U50" t="n">
+        <v>-0.08643589237762202</v>
+      </c>
+      <c r="V50" t="n">
+        <v>-0.08756534133258664</v>
+      </c>
+      <c r="W50" t="n">
+        <v>-0.08859391945021534</v>
+      </c>
+      <c r="X50" t="n">
+        <v>-0.08953200809966283</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>-0.09039022989803167</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>-0.09117823280372607</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>-0.0919052177060181</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>-0.09253336095829547</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>-0.09307344531784408</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>-0.09358547267305799</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>-0.09407378779026962</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>-0.09449387585289834</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>-0.09490395703633449</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>-0.09530588529051481</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>-0.0957013881183717</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>-0.09609207816036673</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>-0.09647895067346479</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>-0.09686266256876128</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>-0.0972871198419635</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>-0.09770567969158961</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>-0.09811901456486723</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>-0.09852742078201707</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>-0.09893080299170971</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>-0.0993289080044675</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>-0.09972130614598042</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>-0.1001075440351809</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>-0.1004870291912892</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>-0.1008591492214812</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1299,6 +7749,135 @@
       <c r="E51" t="n">
         <v>-0.8628616721531992</v>
       </c>
+      <c r="F51" t="n">
+        <v>-0.8650018990750076</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-0.8679166479799596</v>
+      </c>
+      <c r="H51" t="n">
+        <v>-0.8711609292185899</v>
+      </c>
+      <c r="I51" t="n">
+        <v>-0.8744783706501508</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-0.877694263922208</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-0.8806962503661937</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-0.8834196397488149</v>
+      </c>
+      <c r="M51" t="n">
+        <v>-0.8858352081903726</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-0.8879399209793194</v>
+      </c>
+      <c r="O51" t="n">
+        <v>-0.8897490899973851</v>
+      </c>
+      <c r="P51" t="n">
+        <v>-0.8912904826039817</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>-0.8925996085557938</v>
+      </c>
+      <c r="R51" t="n">
+        <v>-0.8937160871583031</v>
+      </c>
+      <c r="S51" t="n">
+        <v>-0.8946808836524255</v>
+      </c>
+      <c r="T51" t="n">
+        <v>-0.8955342530254374</v>
+      </c>
+      <c r="U51" t="n">
+        <v>-0.8963142569456766</v>
+      </c>
+      <c r="V51" t="n">
+        <v>-0.8970557420283374</v>
+      </c>
+      <c r="W51" t="n">
+        <v>-0.8977896862597956</v>
+      </c>
+      <c r="X51" t="n">
+        <v>-0.8985431327486031</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>-0.8993378527526459</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>-0.9001921801150637</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>-0.9011199963351386</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>-0.9020623693601141</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>-0.9030366945522453</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>-0.9041260702490838</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>-0.9053253617850017</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>-0.9065609530358878</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>-0.9079009393128085</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>-0.9093337334873351</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>-0.9108479504885834</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>-0.9124316598317509</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>-0.9140733953658519</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>-0.9157618419247595</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>-0.9175468056706857</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>-0.9193542604956951</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>-0.9211751284107395</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>-0.9230003797795024</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>-0.924821751767354</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>-0.9266315331210137</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>-0.9284227387621189</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>-0.930188972364393</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>-0.9319247165883671</v>
+      </c>
+      <c r="AV51" t="n">
+        <v>-0.9336251458842437</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1316,6 +7895,135 @@
       <c r="E52" t="n">
         <v>-0.8628616721531992</v>
       </c>
+      <c r="F52" t="n">
+        <v>-0.8650018990750076</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-0.8679166479799596</v>
+      </c>
+      <c r="H52" t="n">
+        <v>-0.8711609292185899</v>
+      </c>
+      <c r="I52" t="n">
+        <v>-0.8744783706501508</v>
+      </c>
+      <c r="J52" t="n">
+        <v>-0.877694263922208</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-0.8806962503661937</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-0.8834196397488149</v>
+      </c>
+      <c r="M52" t="n">
+        <v>-0.8858352081903726</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-0.8879399209793194</v>
+      </c>
+      <c r="O52" t="n">
+        <v>-0.8897490899973851</v>
+      </c>
+      <c r="P52" t="n">
+        <v>-0.8912904826039817</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>-0.8925996085557938</v>
+      </c>
+      <c r="R52" t="n">
+        <v>-0.8937160871583031</v>
+      </c>
+      <c r="S52" t="n">
+        <v>-0.8946808836524255</v>
+      </c>
+      <c r="T52" t="n">
+        <v>-0.8955342530254374</v>
+      </c>
+      <c r="U52" t="n">
+        <v>-0.8963142569456766</v>
+      </c>
+      <c r="V52" t="n">
+        <v>-0.8970557420283374</v>
+      </c>
+      <c r="W52" t="n">
+        <v>-0.8977896862597956</v>
+      </c>
+      <c r="X52" t="n">
+        <v>-0.8985431327486031</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>-0.8993378527526459</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>-0.9001921801150637</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>-0.9011199963351386</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>-0.9020623693601141</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>-0.9030366945522453</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>-0.9041260702490838</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>-0.9053253617850017</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>-0.9065609530358878</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>-0.9079009393128085</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>-0.9093337334873351</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>-0.9108479504885834</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>-0.9124316598317509</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>-0.9140733953658519</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>-0.9157618419247595</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>-0.9175468056706857</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>-0.9193542604956951</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>-0.9211751284107395</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>-0.9230003797795024</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>-0.924821751767354</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>-0.9266315331210137</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>-0.9284227387621189</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>-0.930188972364393</v>
+      </c>
+      <c r="AU52" t="n">
+        <v>-0.9319247165883671</v>
+      </c>
+      <c r="AV52" t="n">
+        <v>-0.9336251458842437</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1333,6 +8041,135 @@
       <c r="E53" t="n">
         <v>-1.132091095071471</v>
       </c>
+      <c r="F53" t="n">
+        <v>-1.13648700511422</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-1.14166851588208</v>
+      </c>
+      <c r="H53" t="n">
+        <v>-1.147188986418009</v>
+      </c>
+      <c r="I53" t="n">
+        <v>-1.152817049761379</v>
+      </c>
+      <c r="J53" t="n">
+        <v>-1.158384646793877</v>
+      </c>
+      <c r="K53" t="n">
+        <v>-1.163772972250235</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-1.168902620582084</v>
+      </c>
+      <c r="M53" t="n">
+        <v>-1.173724666539792</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-1.178214353475785</v>
+      </c>
+      <c r="O53" t="n">
+        <v>-1.182365021280599</v>
+      </c>
+      <c r="P53" t="n">
+        <v>-1.186183727456142</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>-1.18968744652636</v>
+      </c>
+      <c r="R53" t="n">
+        <v>-1.192900000580912</v>
+      </c>
+      <c r="S53" t="n">
+        <v>-1.195849580522587</v>
+      </c>
+      <c r="T53" t="n">
+        <v>-1.19856676740521</v>
+      </c>
+      <c r="U53" t="n">
+        <v>-1.201082976679761</v>
+      </c>
+      <c r="V53" t="n">
+        <v>-1.203429258807651</v>
+      </c>
+      <c r="W53" t="n">
+        <v>-1.205635398505812</v>
+      </c>
+      <c r="X53" t="n">
+        <v>-1.207729859828512</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>-1.20973692022303</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>-1.211680039232706</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>-1.213579288610722</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>-1.215344293492533</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>-1.216998705748891</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>-1.218679064164644</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>-1.220389734992942</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>-1.222021409807347</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>-1.223700058296783</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>-1.225422796101758</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>-1.227186706157926</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>-1.228987398435779</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>-1.230820801516525</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>-1.232682295187991</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>-1.234667571149532</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>-1.2366633930873</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>-1.238666052185149</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>-1.240670797767113</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>-1.2426732174658</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>-1.244668742667657</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>-1.246652977888935</v>
+      </c>
+      <c r="AT53" t="n">
+        <v>-1.248621455722307</v>
+      </c>
+      <c r="AU53" t="n">
+        <v>-1.2505701926845</v>
+      </c>
+      <c r="AV53" t="n">
+        <v>-1.252495457439273</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1350,6 +8187,135 @@
       <c r="E54" t="n">
         <v>-0.1745356796553774</v>
       </c>
+      <c r="F54" t="n">
+        <v>-0.175657477977661</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-0.1771996393231293</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-0.1789590068580957</v>
+      </c>
+      <c r="I54" t="n">
+        <v>-0.1808072598177118</v>
+      </c>
+      <c r="J54" t="n">
+        <v>-0.1826562416190338</v>
+      </c>
+      <c r="K54" t="n">
+        <v>-0.1844479211756618</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-0.1861466656560109</v>
+      </c>
+      <c r="M54" t="n">
+        <v>-0.1877336561167552</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-0.1892021406667061</v>
+      </c>
+      <c r="O54" t="n">
+        <v>-0.1905540271914587</v>
+      </c>
+      <c r="P54" t="n">
+        <v>-0.1917970330602659</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>-0.1929425536626157</v>
+      </c>
+      <c r="R54" t="n">
+        <v>-0.1940040269122284</v>
+      </c>
+      <c r="S54" t="n">
+        <v>-0.1949957060361825</v>
+      </c>
+      <c r="T54" t="n">
+        <v>-0.1959317593009289</v>
+      </c>
+      <c r="U54" t="n">
+        <v>-0.1968256303238189</v>
+      </c>
+      <c r="V54" t="n">
+        <v>-0.1976896047022635</v>
+      </c>
+      <c r="W54" t="n">
+        <v>-0.1985345385425741</v>
+      </c>
+      <c r="X54" t="n">
+        <v>-0.1993694621569804</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>-0.2002025027495483</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>-0.201039485030176</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>-0.2018849343648655</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>-0.2027002633492241</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>-0.2034916958143441</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>-0.2043072038564666</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>-0.2051436220689883</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>-0.2059541988868616</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>-0.2067839028214556</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>-0.2076277795997516</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>-0.2084811222800978</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>-0.209339726245225</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>-0.2101992492453754</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>-0.2110556111457542</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>-0.2119492781192588</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>-0.2128306641698426</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>-0.2136970424758235</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>-0.2145460248694208</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>-0.2153752676117269</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>-0.21618273914733</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>-0.216966647999407</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>-0.217725576004255</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>-0.2184582768477187</v>
+      </c>
+      <c r="AV54" t="n">
+        <v>-0.2191638438948747</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1367,6 +8333,135 @@
       <c r="E55" t="n">
         <v>-1.001105701395162</v>
       </c>
+      <c r="F55" t="n">
+        <v>-1.005366706533468</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-1.010761259774207</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-1.016883656426779</v>
+      </c>
+      <c r="I55" t="n">
+        <v>-1.023402466303831</v>
+      </c>
+      <c r="J55" t="n">
+        <v>-1.030070853224738</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-1.036705858660821</v>
+      </c>
+      <c r="L55" t="n">
+        <v>-1.043174231198614</v>
+      </c>
+      <c r="M55" t="n">
+        <v>-1.049381768139771</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-1.055265788368827</v>
+      </c>
+      <c r="O55" t="n">
+        <v>-1.060788121124022</v>
+      </c>
+      <c r="P55" t="n">
+        <v>-1.065930097267845</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>-1.070688166049074</v>
+      </c>
+      <c r="R55" t="n">
+        <v>-1.075070273787895</v>
+      </c>
+      <c r="S55" t="n">
+        <v>-1.079092859780224</v>
+      </c>
+      <c r="T55" t="n">
+        <v>-1.082778376395259</v>
+      </c>
+      <c r="U55" t="n">
+        <v>-1.086153258353224</v>
+      </c>
+      <c r="V55" t="n">
+        <v>-1.089246277796946</v>
+      </c>
+      <c r="W55" t="n">
+        <v>-1.092087230057963</v>
+      </c>
+      <c r="X55" t="n">
+        <v>-1.094706376231117</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>-1.097131742672807</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>-1.099391358689211</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>-1.101511019079094</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>-1.103401662083418</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>-1.10509511027475</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>-1.106742628758585</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>-1.108355390291688</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>-1.109827382145727</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>-1.111299069927025</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>-1.112773687167237</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>-1.114254484530522</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>-1.115743145233773</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>-1.117241183086179</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>-1.118749245323795</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>-1.120363002056908</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>-1.121976480633605</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>-1.123590654649041</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>-1.125204783979358</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>-1.126817838963475</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>-1.128428167326284</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>-1.130033846803798</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>-1.13163242915293</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>-1.133221586205916</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>-1.134798889421519</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1384,6 +8479,135 @@
       <c r="E56" t="n">
         <v>-0.8745766332227386</v>
       </c>
+      <c r="F56" t="n">
+        <v>-0.8791891739167184</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-0.8842832682720015</v>
+      </c>
+      <c r="H56" t="n">
+        <v>-0.8897263598418271</v>
+      </c>
+      <c r="I56" t="n">
+        <v>-0.8953271364991339</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-0.9009405640465316</v>
+      </c>
+      <c r="K56" t="n">
+        <v>-0.9064580137250848</v>
+      </c>
+      <c r="L56" t="n">
+        <v>-0.9117998278749991</v>
+      </c>
+      <c r="M56" t="n">
+        <v>-0.9169102557475581</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-0.9217528552059888</v>
+      </c>
+      <c r="O56" t="n">
+        <v>-0.9263069155952144</v>
+      </c>
+      <c r="P56" t="n">
+        <v>-0.9305642262544286</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>-0.9345263562516355</v>
+      </c>
+      <c r="R56" t="n">
+        <v>-0.9382023142378207</v>
+      </c>
+      <c r="S56" t="n">
+        <v>-0.9416065634961144</v>
+      </c>
+      <c r="T56" t="n">
+        <v>-0.9447573575795748</v>
+      </c>
+      <c r="U56" t="n">
+        <v>-0.9476753637541819</v>
+      </c>
+      <c r="V56" t="n">
+        <v>-0.9503825423290285</v>
+      </c>
+      <c r="W56" t="n">
+        <v>-0.952901250923982</v>
+      </c>
+      <c r="X56" t="n">
+        <v>-0.9552532210812799</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>-0.957460237979383</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>-0.9595420385768293</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>-0.9615171298477185</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>-0.9633167438479061</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>-0.9649658949446625</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>-0.966576687270349</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>-0.9681562827739033</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>-0.9696282003152977</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>-0.9710927795659097</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>-0.9725514977957024</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>-0.9740053233776178</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>-0.9754551038109791</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>-0.9769007948835866</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>-0.978341916705043</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>-0.9798425239049371</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>-0.9813314973414751</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>-0.9828089083987837</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>-0.9842743544314875</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>-0.9857268310721854</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>-0.9871651229377617</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>-0.9885878041812646</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>-0.9899934597151038</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>-0.9913805786957868</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>-0.9927476760588722</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1401,6 +8625,135 @@
       <c r="E57" t="n">
         <v>-0.9388239585257787</v>
       </c>
+      <c r="F57" t="n">
+        <v>-0.9380895540676317</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-0.938827375838852</v>
+      </c>
+      <c r="H57" t="n">
+        <v>-0.9407353961662515</v>
+      </c>
+      <c r="I57" t="n">
+        <v>-0.9435940142319521</v>
+      </c>
+      <c r="J57" t="n">
+        <v>-0.9472219144829086</v>
+      </c>
+      <c r="K57" t="n">
+        <v>-0.9514648426658943</v>
+      </c>
+      <c r="L57" t="n">
+        <v>-0.9561886314765484</v>
+      </c>
+      <c r="M57" t="n">
+        <v>-0.9612754656625089</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-0.966622086117548</v>
+      </c>
+      <c r="O57" t="n">
+        <v>-0.9721378313272726</v>
+      </c>
+      <c r="P57" t="n">
+        <v>-0.9777437750069544</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>-0.9833717962836719</v>
+      </c>
+      <c r="R57" t="n">
+        <v>-0.9889637438702692</v>
+      </c>
+      <c r="S57" t="n">
+        <v>-0.9944706394910867</v>
+      </c>
+      <c r="T57" t="n">
+        <v>-0.9998519044001626</v>
+      </c>
+      <c r="U57" t="n">
+        <v>-1.005074605781137</v>
+      </c>
+      <c r="V57" t="n">
+        <v>-1.010112725221375</v>
+      </c>
+      <c r="W57" t="n">
+        <v>-1.014946453129225</v>
+      </c>
+      <c r="X57" t="n">
+        <v>-1.019561816395658</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>-1.023948826733215</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>-1.028102627906605</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>-1.032021852035989</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>-1.035636103303823</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>-1.038949642958732</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>-1.042049676722902</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>-1.04494425404029</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>-1.04756565764369</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>-1.050007171019428</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>-1.052279513638804</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>-1.054394366947459</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>-1.056363300444096</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>-1.058198449458612</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>-1.059911841821071</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>-1.061585245962765</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>-1.063154148274797</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>-1.064630475988773</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>-1.066024875201855</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>-1.067347446658121</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>-1.068607405402985</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>-1.069813240543068</v>
+      </c>
+      <c r="AT57" t="n">
+        <v>-1.0709724007908</v>
+      </c>
+      <c r="AU57" t="n">
+        <v>-1.07209177690047</v>
+      </c>
+      <c r="AV57" t="n">
+        <v>-1.073177469714495</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1418,6 +8771,135 @@
       <c r="E58" t="n">
         <v>-1.10960707459841</v>
       </c>
+      <c r="F58" t="n">
+        <v>-1.106782422879538</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-1.104056924113274</v>
+      </c>
+      <c r="H58" t="n">
+        <v>-1.101643024523748</v>
+      </c>
+      <c r="I58" t="n">
+        <v>-1.099729565602461</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1.098435320235412</v>
+      </c>
+      <c r="K58" t="n">
+        <v>-1.097825567931889</v>
+      </c>
+      <c r="L58" t="n">
+        <v>-1.097926243435901</v>
+      </c>
+      <c r="M58" t="n">
+        <v>-1.098733323615939</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-1.100220186809777</v>
+      </c>
+      <c r="O58" t="n">
+        <v>-1.102343860300137</v>
+      </c>
+      <c r="P58" t="n">
+        <v>-1.105049734873915</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>-1.108275454542827</v>
+      </c>
+      <c r="R58" t="n">
+        <v>-1.111954087836597</v>
+      </c>
+      <c r="S58" t="n">
+        <v>-1.116016695164761</v>
+      </c>
+      <c r="T58" t="n">
+        <v>-1.120394389133123</v>
+      </c>
+      <c r="U58" t="n">
+        <v>-1.125019964790555</v>
+      </c>
+      <c r="V58" t="n">
+        <v>-1.129829163417292</v>
+      </c>
+      <c r="W58" t="n">
+        <v>-1.134761623910649</v>
+      </c>
+      <c r="X58" t="n">
+        <v>-1.139761483617898</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>-1.144777912192493</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>-1.149765719505054</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>-1.154684907623871</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>-1.159492554983218</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>-1.164145426696183</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>-1.168623237795956</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>-1.172909746909774</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>-1.176967949981943</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>-1.180807459184446</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>-1.184425699863271</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>-1.187823043148557</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>-1.191002488008517</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>-1.193969253487594</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>-1.196730192162431</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>-1.199343254915226</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>-1.201769606669153</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>-1.204019072295751</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>-1.206102365815998</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>-1.208030826896532</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>-1.209816119068638</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>-1.211469960035051</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>-1.213004215384595</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>-1.214430428627793</v>
+      </c>
+      <c r="AV58" t="n">
+        <v>-1.215759843181104</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1435,6 +8917,135 @@
       <c r="E59" t="n">
         <v>-0.8125209415998719</v>
       </c>
+      <c r="F59" t="n">
+        <v>-0.8106194128482038</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-0.8091023128120185</v>
+      </c>
+      <c r="H59" t="n">
+        <v>-0.8078717769477065</v>
+      </c>
+      <c r="I59" t="n">
+        <v>-0.8069196465107571</v>
+      </c>
+      <c r="J59" t="n">
+        <v>-0.8062470338277226</v>
+      </c>
+      <c r="K59" t="n">
+        <v>-0.805859389810506</v>
+      </c>
+      <c r="L59" t="n">
+        <v>-0.8057635053046734</v>
+      </c>
+      <c r="M59" t="n">
+        <v>-0.8059648812990924</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-0.8064661318093256</v>
+      </c>
+      <c r="O59" t="n">
+        <v>-0.8072660624418219</v>
+      </c>
+      <c r="P59" t="n">
+        <v>-0.8083592725076354</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>-0.8097361316670422</v>
+      </c>
+      <c r="R59" t="n">
+        <v>-0.8113830399932969</v>
+      </c>
+      <c r="S59" t="n">
+        <v>-0.8132828709536394</v>
+      </c>
+      <c r="T59" t="n">
+        <v>-0.8154155253464375</v>
+      </c>
+      <c r="U59" t="n">
+        <v>-0.8177585410327213</v>
+      </c>
+      <c r="V59" t="n">
+        <v>-0.8202877171666482</v>
+      </c>
+      <c r="W59" t="n">
+        <v>-0.8229777228476671</v>
+      </c>
+      <c r="X59" t="n">
+        <v>-0.8258026822944962</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>-0.8287365021895917</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>-0.8317538410166432</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>-0.8348300201040278</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>-0.8379238094312683</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>-0.8410075599872825</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>-0.8440786344841653</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>-0.8471176984377816</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>-0.8500769887935995</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>-0.8529697235872864</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>-0.855783566467174</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>-0.858508473330397</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>-0.8611364298484128</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>-0.8636614659589426</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>-0.8660792859341171</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>-0.8684389959976087</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>-0.8706880879673233</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>-0.8728262447884878</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>-0.8748543318422999</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>-0.8767743069475417</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>-0.8785889725979281</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>-0.8803018404924704</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>-0.8819170576106454</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>-0.8834392011484318</v>
+      </c>
+      <c r="AV59" t="n">
+        <v>-0.8848732841722252</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1452,6 +9063,135 @@
       <c r="E60" t="n">
         <v>-0.449691887524116</v>
       </c>
+      <c r="F60" t="n">
+        <v>-0.4444197895671667</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-0.4400657472051433</v>
+      </c>
+      <c r="H60" t="n">
+        <v>-0.4364907273501858</v>
+      </c>
+      <c r="I60" t="n">
+        <v>-0.4336252334264429</v>
+      </c>
+      <c r="J60" t="n">
+        <v>-0.4314202364527265</v>
+      </c>
+      <c r="K60" t="n">
+        <v>-0.4298380050751836</v>
+      </c>
+      <c r="L60" t="n">
+        <v>-0.4288456465809204</v>
+      </c>
+      <c r="M60" t="n">
+        <v>-0.4284112020444558</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-0.4285014736917547</v>
+      </c>
+      <c r="O60" t="n">
+        <v>-0.4290808517267019</v>
+      </c>
+      <c r="P60" t="n">
+        <v>-0.4301110503710547</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>-0.4315512949116126</v>
+      </c>
+      <c r="R60" t="n">
+        <v>-0.4333588132314848</v>
+      </c>
+      <c r="S60" t="n">
+        <v>-0.4354894925684068</v>
+      </c>
+      <c r="T60" t="n">
+        <v>-0.4378986054816754</v>
+      </c>
+      <c r="U60" t="n">
+        <v>-0.4405415392861873</v>
+      </c>
+      <c r="V60" t="n">
+        <v>-0.4433744852241682</v>
+      </c>
+      <c r="W60" t="n">
+        <v>-0.4463550596620984</v>
+      </c>
+      <c r="X60" t="n">
+        <v>-0.4494428211105698</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>-0.452599722502575</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>-0.4557905477543412</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>-0.4589830709065923</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>-0.4621589238361863</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>-0.4652821029813991</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>-0.4683148173199829</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>-0.4712393412531062</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>-0.4740373179023335</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>-0.4766940464675697</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>-0.4792024483305703</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>-0.4815579007342753</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>-0.4837581768263774</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>-0.4858032376523296</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>-0.4876948988410332</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>-0.4894667838223327</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>-0.4910949712337103</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>-0.4925845762776035</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>-0.4939419281887544</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>-0.4951741720879594</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>-0.4962890247094017</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>-0.4972946055383094</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>-0.4981992503861962</v>
+      </c>
+      <c r="AU60" t="n">
+        <v>-0.4990113631541868</v>
+      </c>
+      <c r="AV60" t="n">
+        <v>-0.4997394303239491</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1469,6 +9209,135 @@
       <c r="E61" t="n">
         <v>0.3796834480108943</v>
       </c>
+      <c r="F61" t="n">
+        <v>0.3807237496476666</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.381613879601291</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.3823855170536732</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.3830432467628622</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.3835912236696223</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.3840342799082096</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.3843781421172599</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.3846295013454999</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.3847958206952551</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0.384885214940562</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.3849062106744784</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.384867547604538</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.3847779921337035</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0.3846461736837863</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0.3844804461849374</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0.3842887748679144</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0.3840786472002325</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0.3838570061137047</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0.3836301432139737</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>0.3834039333584315</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>0.3831833948029386</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>0.3829729901845313</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>0.3827864560801728</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>0.3826285636945351</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>0.382490671753073</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>0.3823751374089612</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>0.3822979765907662</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>0.3822453495263313</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>0.3822180687707025</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>0.3822163106143091</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>0.3822399786005221</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>0.3822885759263755</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>0.3823613857727589</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>0.3824398827023289</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>0.3825417929335935</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>0.3826657755776647</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>0.3828105592265725</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>0.3829747628707338</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>0.3831569946634757</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>0.3833558463017129</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>0.383569946900709</v>
+      </c>
+      <c r="AU61" t="n">
+        <v>0.3837979305368881</v>
+      </c>
+      <c r="AV61" t="n">
+        <v>0.3840384538610821</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1486,6 +9355,135 @@
       <c r="E62" t="n">
         <v>-1.164072907318146</v>
       </c>
+      <c r="F62" t="n">
+        <v>-1.163365770433</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-1.164371266775999</v>
+      </c>
+      <c r="H62" t="n">
+        <v>-1.166876502245398</v>
+      </c>
+      <c r="I62" t="n">
+        <v>-1.170640057203693</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1.175470023420641</v>
+      </c>
+      <c r="K62" t="n">
+        <v>-1.181201522634794</v>
+      </c>
+      <c r="L62" t="n">
+        <v>-1.187684361020491</v>
+      </c>
+      <c r="M62" t="n">
+        <v>-1.194778638313877</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-1.202353732936272</v>
+      </c>
+      <c r="O62" t="n">
+        <v>-1.210287287487163</v>
+      </c>
+      <c r="P62" t="n">
+        <v>-1.218465952459783</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>-1.226785864146958</v>
+      </c>
+      <c r="R62" t="n">
+        <v>-1.235153045763815</v>
+      </c>
+      <c r="S62" t="n">
+        <v>-1.243483641535483</v>
+      </c>
+      <c r="T62" t="n">
+        <v>-1.251703961640553</v>
+      </c>
+      <c r="U62" t="n">
+        <v>-1.259750347633788</v>
+      </c>
+      <c r="V62" t="n">
+        <v>-1.267568881836805</v>
+      </c>
+      <c r="W62" t="n">
+        <v>-1.275114968757439</v>
+      </c>
+      <c r="X62" t="n">
+        <v>-1.282353053948085</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>-1.289255082446349</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>-1.295801187108553</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>-1.301978293262107</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>-1.307699035524997</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>-1.312948769780447</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>-1.317823224065614</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>-1.322330219548982</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>-1.326369877825561</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>-1.330076292611255</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>-1.33346616107854</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>-1.336559199271133</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>-1.33937603145541</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>-1.341938461418803</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>-1.344268637001382</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>-1.346511444445665</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>-1.348552890284392</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>-1.350415980449863</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>-1.352121652039973</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>-1.353689833298381</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>-1.355139073248563</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>-1.356486689222931</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>-1.357748242884703</v>
+      </c>
+      <c r="AU62" t="n">
+        <v>-1.358938101987309</v>
+      </c>
+      <c r="AV62" t="n">
+        <v>-1.360069462177113</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1503,6 +9501,135 @@
       <c r="E63" t="n">
         <v>-0.6536214461709248</v>
       </c>
+      <c r="F63" t="n">
+        <v>-0.6416320891210171</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-0.6313546086661777</v>
+      </c>
+      <c r="H63" t="n">
+        <v>-0.6222602134220351</v>
+      </c>
+      <c r="I63" t="n">
+        <v>-0.6141366712967286</v>
+      </c>
+      <c r="J63" t="n">
+        <v>-0.6068404442770705</v>
+      </c>
+      <c r="K63" t="n">
+        <v>-0.6002783487842204</v>
+      </c>
+      <c r="L63" t="n">
+        <v>-0.594394474405783</v>
+      </c>
+      <c r="M63" t="n">
+        <v>-0.5891572647123775</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-0.5845500597890717</v>
+      </c>
+      <c r="O63" t="n">
+        <v>-0.5805637699848274</v>
+      </c>
+      <c r="P63" t="n">
+        <v>-0.5771916821813547</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>-0.5744258967243121</v>
+      </c>
+      <c r="R63" t="n">
+        <v>-0.5722551073383543</v>
+      </c>
+      <c r="S63" t="n">
+        <v>-0.5706633794099994</v>
+      </c>
+      <c r="T63" t="n">
+        <v>-0.5696296658345582</v>
+      </c>
+      <c r="U63" t="n">
+        <v>-0.5691278501454121</v>
+      </c>
+      <c r="V63" t="n">
+        <v>-0.5691271510098895</v>
+      </c>
+      <c r="W63" t="n">
+        <v>-0.5695927594078459</v>
+      </c>
+      <c r="X63" t="n">
+        <v>-0.5704870415394464</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>-0.5717685471090749</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>-0.5733957443510365</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>-0.5753257671039091</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>-0.5775483228434926</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>-0.5800211812806622</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>-0.5826625737137743</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>-0.5854300897122956</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>-0.5883156543739148</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>-0.5912448644990496</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>-0.5941850728718323</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>-0.5971082046476212</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>-0.5999890818858089</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>-0.6028065337318815</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>-0.6055424922088648</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>-0.6081820409790456</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>-0.6107205984490336</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>-0.6131476207694577</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>-0.615454968929789</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>-0.6176373093764917</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>-0.6196914159675859</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>-0.6216160333217227</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>-0.623411589648443</v>
+      </c>
+      <c r="AU63" t="n">
+        <v>-0.6250800968575864</v>
+      </c>
+      <c r="AV63" t="n">
+        <v>-0.6266247601170367</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1520,6 +9647,135 @@
       <c r="E64" t="n">
         <v>-0.9033178941143828</v>
       </c>
+      <c r="F64" t="n">
+        <v>-0.8973312121121998</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-0.892471348779191</v>
+      </c>
+      <c r="H64" t="n">
+        <v>-0.8884400107482143</v>
+      </c>
+      <c r="I64" t="n">
+        <v>-0.885206781635638</v>
+      </c>
+      <c r="J64" t="n">
+        <v>-0.8827375665501118</v>
+      </c>
+      <c r="K64" t="n">
+        <v>-0.8809951670514762</v>
+      </c>
+      <c r="L64" t="n">
+        <v>-0.8799411128101293</v>
+      </c>
+      <c r="M64" t="n">
+        <v>-0.8795345349442578</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-0.8797324846079572</v>
+      </c>
+      <c r="O64" t="n">
+        <v>-0.880489625919354</v>
+      </c>
+      <c r="P64" t="n">
+        <v>-0.8817586706405457</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>-0.8834907892991405</v>
+      </c>
+      <c r="R64" t="n">
+        <v>-0.8856361925080906</v>
+      </c>
+      <c r="S64" t="n">
+        <v>-0.888144775012536</v>
+      </c>
+      <c r="T64" t="n">
+        <v>-0.8909667717285202</v>
+      </c>
+      <c r="U64" t="n">
+        <v>-0.8940533872925754</v>
+      </c>
+      <c r="V64" t="n">
+        <v>-0.8973573722282009</v>
+      </c>
+      <c r="W64" t="n">
+        <v>-0.9008335285847754</v>
+      </c>
+      <c r="X64" t="n">
+        <v>-0.9044398593396745</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>-0.9081349044867835</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>-0.9118826864374411</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>-0.9156496299145259</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>-0.9193932549838852</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>-0.9230733433171259</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>-0.9266768419679728</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>-0.9301858098287241</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>-0.9335507610005123</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>-0.9367867559254699</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>-0.9398860984619646</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>-0.9428440321375834</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>-0.9456569551744788</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>-0.9483242666985858</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>-0.9508468532547657</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>-0.953294030440372</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>-0.9556015622374764</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>-0.9577735531202789</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>-0.959814647058725</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>-0.9617309251819587</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>-0.9635289242052038</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>-0.965215690546973</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>-0.9667983888619519</v>
+      </c>
+      <c r="AU64" t="n">
+        <v>-0.9682845307237151</v>
+      </c>
+      <c r="AV64" t="n">
+        <v>-0.9696816567208946</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1537,6 +9793,135 @@
       <c r="E65" t="n">
         <v>-0.05642745506216292</v>
       </c>
+      <c r="F65" t="n">
+        <v>-0.0527561651236593</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-0.04955377341246237</v>
+      </c>
+      <c r="H65" t="n">
+        <v>-0.04677662426985225</v>
+      </c>
+      <c r="I65" t="n">
+        <v>-0.04438822315564622</v>
+      </c>
+      <c r="J65" t="n">
+        <v>-0.04237165886762835</v>
+      </c>
+      <c r="K65" t="n">
+        <v>-0.04072031708229266</v>
+      </c>
+      <c r="L65" t="n">
+        <v>-0.03943121891441899</v>
+      </c>
+      <c r="M65" t="n">
+        <v>-0.03850187237505491</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-0.03792727849528461</v>
+      </c>
+      <c r="O65" t="n">
+        <v>-0.03769913423046049</v>
+      </c>
+      <c r="P65" t="n">
+        <v>-0.03780502069954125</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>-0.03822839797726171</v>
+      </c>
+      <c r="R65" t="n">
+        <v>-0.03894891107370427</v>
+      </c>
+      <c r="S65" t="n">
+        <v>-0.03994291560170971</v>
+      </c>
+      <c r="T65" t="n">
+        <v>-0.04118412650471845</v>
+      </c>
+      <c r="U65" t="n">
+        <v>-0.04264431939951049</v>
+      </c>
+      <c r="V65" t="n">
+        <v>-0.04429403429555942</v>
+      </c>
+      <c r="W65" t="n">
+        <v>-0.04610324697489662</v>
+      </c>
+      <c r="X65" t="n">
+        <v>-0.04804120095958592</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>-0.05008002403566895</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>-0.05219069642894981</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>-0.05434637701693055</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>-0.05654017377812472</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>-0.05874342993972882</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>-0.06091036611522109</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>-0.06302196841426451</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>-0.06507281637988228</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>-0.0670342299049255</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>-0.06889612809357284</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>-0.07065074343433475</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>-0.07229352994252719</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>-0.07382085061485515</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>-0.0752309491899939</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>-0.07653878184188576</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>-0.07773372900312377</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>-0.0788176248611035</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>-0.07979404176004948</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>-0.08066687265195355</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>-0.08144092352610238</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>-0.08212147567308453</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>-0.08271455097505016</v>
+      </c>
+      <c r="AU65" t="n">
+        <v>-0.0832261180869065</v>
+      </c>
+      <c r="AV65" t="n">
+        <v>-0.08366253660288045</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1554,6 +9939,135 @@
       <c r="E66" t="n">
         <v>-0.7479471337458709</v>
       </c>
+      <c r="F66" t="n">
+        <v>-0.7462789058220686</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-0.7456604133532315</v>
+      </c>
+      <c r="H66" t="n">
+        <v>-0.7461485016751568</v>
+      </c>
+      <c r="I66" t="n">
+        <v>-0.7476499423820542</v>
+      </c>
+      <c r="J66" t="n">
+        <v>-0.7500704167121723</v>
+      </c>
+      <c r="K66" t="n">
+        <v>-0.7533122442978963</v>
+      </c>
+      <c r="L66" t="n">
+        <v>-0.7572748244226326</v>
+      </c>
+      <c r="M66" t="n">
+        <v>-0.7618562251907788</v>
+      </c>
+      <c r="N66" t="n">
+        <v>-0.7669550764436249</v>
+      </c>
+      <c r="O66" t="n">
+        <v>-0.7724722836004148</v>
+      </c>
+      <c r="P66" t="n">
+        <v>-0.7783126718882263</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>-0.7843862840326824</v>
+      </c>
+      <c r="R66" t="n">
+        <v>-0.7906093857273998</v>
+      </c>
+      <c r="S66" t="n">
+        <v>-0.7969051907299246</v>
+      </c>
+      <c r="T66" t="n">
+        <v>-0.8032043326762442</v>
+      </c>
+      <c r="U66" t="n">
+        <v>-0.8094451156886062</v>
+      </c>
+      <c r="V66" t="n">
+        <v>-0.8155735766148896</v>
+      </c>
+      <c r="W66" t="n">
+        <v>-0.8215433903444735</v>
+      </c>
+      <c r="X66" t="n">
+        <v>-0.8273155487546384</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>-0.8328582590034974</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>-0.8381464563326965</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>-0.8431612507932258</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>-0.8478510008201204</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>-0.8521948757662567</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>-0.8562313477985063</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>-0.8599633920026621</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>-0.8633385761988548</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>-0.8664254071518908</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>-0.8692364844258142</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>-0.8717864609338658</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>-0.8740913960987808</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>-0.8761682600985246</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>-0.878034479568662</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>-0.879778254988276</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>-0.8813416951640253</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>-0.8827426046632774</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>-0.883998153174136</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>-0.8851248623256051</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>-0.8861384574748938</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>-0.8870537675329246</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>-0.8878846832480355</v>
+      </c>
+      <c r="AU66" t="n">
+        <v>-0.8886440721312184</v>
+      </c>
+      <c r="AV66" t="n">
+        <v>-0.889343835313378</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1570,6 +10084,135 @@
       </c>
       <c r="E67" t="n">
         <v>-0.7127132913813207</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-0.7155426748052757</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-0.7182026573413588</v>
+      </c>
+      <c r="H67" t="n">
+        <v>-0.7210596501657371</v>
+      </c>
+      <c r="I67" t="n">
+        <v>-0.7241966137031616</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-0.7276707151499906</v>
+      </c>
+      <c r="K67" t="n">
+        <v>-0.7315132930580184</v>
+      </c>
+      <c r="L67" t="n">
+        <v>-0.7357303768527005</v>
+      </c>
+      <c r="M67" t="n">
+        <v>-0.7403079196729384</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-0.7452159222407942</v>
+      </c>
+      <c r="O67" t="n">
+        <v>-0.750413092449584</v>
+      </c>
+      <c r="P67" t="n">
+        <v>-0.755850583849906</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>-0.761475264186476</v>
+      </c>
+      <c r="R67" t="n">
+        <v>-0.7672323293826298</v>
+      </c>
+      <c r="S67" t="n">
+        <v>-0.7730673677868212</v>
+      </c>
+      <c r="T67" t="n">
+        <v>-0.7789279468303094</v>
+      </c>
+      <c r="U67" t="n">
+        <v>-0.7847647948057543</v>
+      </c>
+      <c r="V67" t="n">
+        <v>-0.7905326446622999</v>
+      </c>
+      <c r="W67" t="n">
+        <v>-0.7961907987629663</v>
+      </c>
+      <c r="X67" t="n">
+        <v>-0.801702505142309</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>-0.8070388025158353</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>-0.8121731783224754</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>-0.8170849347725868</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>-0.8217366671376071</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>-0.826107009153391</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>-0.830208139473344</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>-0.8340391661826839</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>-0.8375708845874523</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>-0.8408366798759611</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>-0.8438452781231607</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>-0.8466062907486184</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>-0.8491321280238767</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>-0.8514352732221743</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>-0.8535292634081807</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>-0.8554684197764136</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>-0.8572269785608317</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>-0.8588195507613949</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>-0.8602613647847366</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>-0.8615667156965788</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>-0.8627496475034482</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>-0.8638235703019299</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>-0.8648014885517862</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>-0.8656954422956225</v>
+      </c>
+      <c r="AV67" t="n">
+        <v>-0.8665168203608062</v>
       </c>
     </row>
   </sheetData>

--- a/PLSstatic_predicted_variables_matrix_11.xlsx
+++ b/PLSstatic_predicted_variables_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV67"/>
+  <dimension ref="A1:AU67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,9 +575,6 @@
       <c r="AU1" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="n">
-        <v>47</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -721,9 +718,6 @@
       <c r="AU2" t="n">
         <v>-0.2704727973135109</v>
       </c>
-      <c r="AV2" t="n">
-        <v>-0.2710958893890386</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -867,9 +861,6 @@
       <c r="AU3" t="n">
         <v>0.2304480313391044</v>
       </c>
-      <c r="AV3" t="n">
-        <v>0.2308433722880612</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1013,9 +1004,6 @@
       <c r="AU4" t="n">
         <v>0.2129003289308995</v>
       </c>
-      <c r="AV4" t="n">
-        <v>0.212772400479824</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1159,9 +1147,6 @@
       <c r="AU5" t="n">
         <v>-0.08970797641589842</v>
       </c>
-      <c r="AV5" t="n">
-        <v>-0.08978511561293652</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1305,9 +1290,6 @@
       <c r="AU6" t="n">
         <v>0.1815663480973442</v>
       </c>
-      <c r="AV6" t="n">
-        <v>0.1822319953209352</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1451,9 +1433,6 @@
       <c r="AU7" t="n">
         <v>-0.4377942612652071</v>
       </c>
-      <c r="AV7" t="n">
-        <v>-0.4385722721525778</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1597,9 +1576,6 @@
       <c r="AU8" t="n">
         <v>-0.1567129232092737</v>
       </c>
-      <c r="AV8" t="n">
-        <v>-0.1573113976745394</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1743,9 +1719,6 @@
       <c r="AU9" t="n">
         <v>-0.3611503949284939</v>
       </c>
-      <c r="AV9" t="n">
-        <v>-0.3616871729856831</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1889,9 +1862,6 @@
       <c r="AU10" t="n">
         <v>0.3949239104757642</v>
       </c>
-      <c r="AV10" t="n">
-        <v>0.3953087919090416</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2035,9 +2005,6 @@
       <c r="AU11" t="n">
         <v>-0.2321159574365713</v>
       </c>
-      <c r="AV11" t="n">
-        <v>-0.2326835035041621</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2181,9 +2148,6 @@
       <c r="AU12" t="n">
         <v>-0.1279256728016567</v>
       </c>
-      <c r="AV12" t="n">
-        <v>-0.1277413982986881</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2327,9 +2291,6 @@
       <c r="AU13" t="n">
         <v>-0.07167998683816822</v>
       </c>
-      <c r="AV13" t="n">
-        <v>-0.07164522689463397</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2473,9 +2434,6 @@
       <c r="AU14" t="n">
         <v>0.01676915158904401</v>
       </c>
-      <c r="AV14" t="n">
-        <v>0.01797374642485591</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2619,9 +2577,6 @@
       <c r="AU15" t="n">
         <v>-0.1414339688456289</v>
       </c>
-      <c r="AV15" t="n">
-        <v>-0.1400783218179603</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2765,9 +2720,6 @@
       <c r="AU16" t="n">
         <v>0.2867365902119393</v>
       </c>
-      <c r="AV16" t="n">
-        <v>0.2885357073388695</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2911,9 +2863,6 @@
       <c r="AU17" t="n">
         <v>0.423799014400085</v>
       </c>
-      <c r="AV17" t="n">
-        <v>0.4260351963083699</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -3057,9 +3006,6 @@
       <c r="AU18" t="n">
         <v>-0.1831491404608121</v>
       </c>
-      <c r="AV18" t="n">
-        <v>-0.1822795491390989</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -3203,9 +3149,6 @@
       <c r="AU19" t="n">
         <v>0.2779674083030378</v>
       </c>
-      <c r="AV19" t="n">
-        <v>0.2791008273796413</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -3349,9 +3292,6 @@
       <c r="AU20" t="n">
         <v>0.1737914140173586</v>
       </c>
-      <c r="AV20" t="n">
-        <v>0.1756873444312674</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3495,9 +3435,6 @@
       <c r="AU21" t="n">
         <v>0.4894550664878186</v>
       </c>
-      <c r="AV21" t="n">
-        <v>0.4909989116861944</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3641,9 +3578,6 @@
       <c r="AU22" t="n">
         <v>0.2423473713042437</v>
       </c>
-      <c r="AV22" t="n">
-        <v>0.2442604376939101</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3787,9 +3721,6 @@
       <c r="AU23" t="n">
         <v>-0.1984827365372941</v>
       </c>
-      <c r="AV23" t="n">
-        <v>-0.1972791266349616</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3933,9 +3864,6 @@
       <c r="AU24" t="n">
         <v>1.488636531242224</v>
       </c>
-      <c r="AV24" t="n">
-        <v>1.497679931991419</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -4079,9 +4007,6 @@
       <c r="AU25" t="n">
         <v>0.3441472745602711</v>
       </c>
-      <c r="AV25" t="n">
-        <v>0.3449951161591141</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -4225,9 +4150,6 @@
       <c r="AU26" t="n">
         <v>0.1515311344758553</v>
       </c>
-      <c r="AV26" t="n">
-        <v>0.152597543440446</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -4371,9 +4293,6 @@
       <c r="AU27" t="n">
         <v>0.05577470904034483</v>
       </c>
-      <c r="AV27" t="n">
-        <v>0.05675230348991153</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -4517,9 +4436,6 @@
       <c r="AU28" t="n">
         <v>0.8984663976837129</v>
       </c>
-      <c r="AV28" t="n">
-        <v>0.8999420979792792</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -4663,9 +4579,6 @@
       <c r="AU29" t="n">
         <v>1.811442391883827</v>
       </c>
-      <c r="AV29" t="n">
-        <v>1.822013559119983</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4809,9 +4722,6 @@
       <c r="AU30" t="n">
         <v>0.7094530474748109</v>
       </c>
-      <c r="AV30" t="n">
-        <v>0.7108686057825675</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4955,9 +4865,6 @@
       <c r="AU31" t="n">
         <v>-0.4400903147004134</v>
       </c>
-      <c r="AV31" t="n">
-        <v>-0.4400443453462449</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -5101,9 +5008,6 @@
       <c r="AU32" t="n">
         <v>0.5903526862517711</v>
       </c>
-      <c r="AV32" t="n">
-        <v>0.5914002561514319</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -5247,9 +5151,6 @@
       <c r="AU33" t="n">
         <v>0.8062772628091642</v>
       </c>
-      <c r="AV33" t="n">
-        <v>0.8072740850479018</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -5393,9 +5294,6 @@
       <c r="AU34" t="n">
         <v>-0.8665213704242853</v>
       </c>
-      <c r="AV34" t="n">
-        <v>-0.8671482396300307</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -5539,9 +5437,6 @@
       <c r="AU35" t="n">
         <v>0.8627034679530915</v>
       </c>
-      <c r="AV35" t="n">
-        <v>0.8631940500119244</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -5685,9 +5580,6 @@
       <c r="AU36" t="n">
         <v>0.8306932423418099</v>
       </c>
-      <c r="AV36" t="n">
-        <v>0.8308755955960213</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -5831,9 +5723,6 @@
       <c r="AU37" t="n">
         <v>0.7964417414017649</v>
       </c>
-      <c r="AV37" t="n">
-        <v>0.7965185581439832</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5977,9 +5866,6 @@
       <c r="AU38" t="n">
         <v>0.6871950761380042</v>
       </c>
-      <c r="AV38" t="n">
-        <v>0.687933561314892</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -6123,9 +6009,6 @@
       <c r="AU39" t="n">
         <v>0.6395595725862373</v>
       </c>
-      <c r="AV39" t="n">
-        <v>0.6396751070966425</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -6269,9 +6152,6 @@
       <c r="AU40" t="n">
         <v>0.8240321271108264</v>
       </c>
-      <c r="AV40" t="n">
-        <v>0.8244150954386112</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -6415,9 +6295,6 @@
       <c r="AU41" t="n">
         <v>0.607034067952963</v>
       </c>
-      <c r="AV41" t="n">
-        <v>0.6074819400847625</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -6561,9 +6438,6 @@
       <c r="AU42" t="n">
         <v>0.6794829070308177</v>
       </c>
-      <c r="AV42" t="n">
-        <v>0.6797404377596001</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -6707,9 +6581,6 @@
       <c r="AU43" t="n">
         <v>0.7179842747354107</v>
       </c>
-      <c r="AV43" t="n">
-        <v>0.7185214834737121</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -6853,9 +6724,6 @@
       <c r="AU44" t="n">
         <v>0.7465016949349864</v>
       </c>
-      <c r="AV44" t="n">
-        <v>0.7466925541045178</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -6999,9 +6867,6 @@
       <c r="AU45" t="n">
         <v>0.7653173303859517</v>
       </c>
-      <c r="AV45" t="n">
-        <v>0.7649582830407207</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -7145,9 +7010,6 @@
       <c r="AU46" t="n">
         <v>-1.417384016242737</v>
       </c>
-      <c r="AV46" t="n">
-        <v>-1.41936859703996</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -7291,9 +7153,6 @@
       <c r="AU47" t="n">
         <v>-1.105820319754661</v>
       </c>
-      <c r="AV47" t="n">
-        <v>-1.107412623288691</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -7437,9 +7296,6 @@
       <c r="AU48" t="n">
         <v>-0.9636254903867476</v>
       </c>
-      <c r="AV48" t="n">
-        <v>-0.9653016172101563</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -7583,9 +7439,6 @@
       <c r="AU49" t="n">
         <v>-0.7114334780168057</v>
       </c>
-      <c r="AV49" t="n">
-        <v>-0.7127438668030945</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -7729,9 +7582,6 @@
       <c r="AU50" t="n">
         <v>-0.1004870291912892</v>
       </c>
-      <c r="AV50" t="n">
-        <v>-0.1008591492214812</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -7875,9 +7725,6 @@
       <c r="AU51" t="n">
         <v>-0.9319247165883671</v>
       </c>
-      <c r="AV51" t="n">
-        <v>-0.9336251458842437</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -8021,9 +7868,6 @@
       <c r="AU52" t="n">
         <v>-0.9319247165883671</v>
       </c>
-      <c r="AV52" t="n">
-        <v>-0.9336251458842437</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -8167,9 +8011,6 @@
       <c r="AU53" t="n">
         <v>-1.2505701926845</v>
       </c>
-      <c r="AV53" t="n">
-        <v>-1.252495457439273</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -8313,9 +8154,6 @@
       <c r="AU54" t="n">
         <v>-0.2184582768477187</v>
       </c>
-      <c r="AV54" t="n">
-        <v>-0.2191638438948747</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -8459,9 +8297,6 @@
       <c r="AU55" t="n">
         <v>-1.133221586205916</v>
       </c>
-      <c r="AV55" t="n">
-        <v>-1.134798889421519</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -8605,9 +8440,6 @@
       <c r="AU56" t="n">
         <v>-0.9913805786957868</v>
       </c>
-      <c r="AV56" t="n">
-        <v>-0.9927476760588722</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -8751,9 +8583,6 @@
       <c r="AU57" t="n">
         <v>-1.07209177690047</v>
       </c>
-      <c r="AV57" t="n">
-        <v>-1.073177469714495</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -8897,9 +8726,6 @@
       <c r="AU58" t="n">
         <v>-1.214430428627793</v>
       </c>
-      <c r="AV58" t="n">
-        <v>-1.215759843181104</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -9043,9 +8869,6 @@
       <c r="AU59" t="n">
         <v>-0.8834392011484318</v>
       </c>
-      <c r="AV59" t="n">
-        <v>-0.8848732841722252</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -9189,9 +9012,6 @@
       <c r="AU60" t="n">
         <v>-0.4990113631541868</v>
       </c>
-      <c r="AV60" t="n">
-        <v>-0.4997394303239491</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -9335,9 +9155,6 @@
       <c r="AU61" t="n">
         <v>0.3837979305368881</v>
       </c>
-      <c r="AV61" t="n">
-        <v>0.3840384538610821</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -9481,9 +9298,6 @@
       <c r="AU62" t="n">
         <v>-1.358938101987309</v>
       </c>
-      <c r="AV62" t="n">
-        <v>-1.360069462177113</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -9627,9 +9441,6 @@
       <c r="AU63" t="n">
         <v>-0.6250800968575864</v>
       </c>
-      <c r="AV63" t="n">
-        <v>-0.6266247601170367</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -9773,9 +9584,6 @@
       <c r="AU64" t="n">
         <v>-0.9682845307237151</v>
       </c>
-      <c r="AV64" t="n">
-        <v>-0.9696816567208946</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -9919,9 +9727,6 @@
       <c r="AU65" t="n">
         <v>-0.0832261180869065</v>
       </c>
-      <c r="AV65" t="n">
-        <v>-0.08366253660288045</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -10065,9 +9870,6 @@
       <c r="AU66" t="n">
         <v>-0.8886440721312184</v>
       </c>
-      <c r="AV66" t="n">
-        <v>-0.889343835313378</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -10210,9 +10012,6 @@
       </c>
       <c r="AU67" t="n">
         <v>-0.8656954422956225</v>
-      </c>
-      <c r="AV67" t="n">
-        <v>-0.8665168203608062</v>
       </c>
     </row>
   </sheetData>
